--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_3_39.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_3_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3515259.531526948</v>
+        <v>3514891.614821463</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>296337.1046705619</v>
+        <v>296337.1046705609</v>
       </c>
     </row>
     <row r="8">
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8018009599674099</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>10.00967878293136</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
         <v>252.3364829231459</v>
@@ -722,7 +722,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
-        <v>378.2098390737216</v>
+        <v>327.9853100306846</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>160.0866360314548</v>
@@ -744,7 +744,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>133.3468600696244</v>
@@ -753,7 +753,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
         <v>216.3098444776729</v>
       </c>
       <c r="V3" t="n">
-        <v>176.1742188446364</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X3" t="n">
-        <v>195.9378182409833</v>
+        <v>56.15359407406515</v>
       </c>
       <c r="Y3" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -823,16 +823,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>50.77333445464513</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.518793999885545</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,13 +899,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
-        <v>361.5437926617429</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G5" t="n">
         <v>11.94294668035388</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>222.1153568062989</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>285.0245875114064</v>
       </c>
       <c r="Y5" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,22 +975,22 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C6" t="n">
-        <v>160.0866360314548</v>
+        <v>93.2723943861039</v>
       </c>
       <c r="D6" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
-        <v>24.05237476938464</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
         <v>151.2714921173871</v>
@@ -1041,7 +1041,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y6" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1060,19 +1060,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>65.79123926981575</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>12.59665167322035</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
-        <v>13.39241589126555</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>11.94294668035388</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>185.3566856159496</v>
@@ -1187,19 +1187,19 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>141.0598120912427</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1224,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>78.11832527047109</v>
       </c>
       <c r="H9" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,22 +1257,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
-        <v>158.7034744856297</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V9" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W9" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>195.9378182409833</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>82.53286631934984</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>22.54853274729805</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1370,25 +1370,25 @@
         <v>277.0092604360253</v>
       </c>
       <c r="C11" t="n">
-        <v>265.020577393707</v>
+        <v>265.0205773937071</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>256.001881438235</v>
       </c>
       <c r="E11" t="n">
-        <v>277.7440190081405</v>
+        <v>11.96856448594087</v>
       </c>
       <c r="F11" t="n">
         <v>296.9158350961177</v>
       </c>
       <c r="G11" t="n">
-        <v>298.8325260922642</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>216.2294497816569</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>57.35610213003368</v>
+        <v>57.35610213003371</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>71.8850957913081</v>
+        <v>71.88509579130815</v>
       </c>
       <c r="T11" t="n">
         <v>108.9489477341494</v>
       </c>
       <c r="U11" t="n">
-        <v>80.73713895671067</v>
+        <v>139.2413130842302</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>220.5156376762044</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>245.8157371541613</v>
       </c>
       <c r="X11" t="n">
         <v>265.1159953869079</v>
@@ -1467,7 +1467,7 @@
         <v>98.85281891431895</v>
       </c>
       <c r="I12" t="n">
-        <v>67.39308974070426</v>
+        <v>67.39308974070381</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>68.62597131072235</v>
+        <v>68.62597131072238</v>
       </c>
       <c r="C13" t="n">
-        <v>54.82596615612283</v>
+        <v>54.82596615612286</v>
       </c>
       <c r="D13" t="n">
-        <v>38.44733055370122</v>
+        <v>38.44733055370125</v>
       </c>
       <c r="E13" t="n">
-        <v>37.39508040948067</v>
+        <v>37.3950804094807</v>
       </c>
       <c r="F13" t="n">
-        <v>37.86200473766698</v>
+        <v>37.86200473766701</v>
       </c>
       <c r="G13" t="n">
-        <v>54.12927163178259</v>
+        <v>54.12927163178262</v>
       </c>
       <c r="H13" t="n">
-        <v>44.61896381776782</v>
+        <v>44.61896381776785</v>
       </c>
       <c r="I13" t="n">
-        <v>29.44355466213278</v>
+        <v>29.44355466213281</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>34.59837805321934</v>
+        <v>34.59837805321936</v>
       </c>
       <c r="S13" t="n">
-        <v>98.34923509440678</v>
+        <v>98.34923509440681</v>
       </c>
       <c r="T13" t="n">
         <v>117.7215487038539</v>
       </c>
       <c r="U13" t="n">
-        <v>171.2240878384011</v>
+        <v>171.2240878384012</v>
       </c>
       <c r="V13" t="n">
-        <v>145.0341077103479</v>
+        <v>145.034107710348</v>
       </c>
       <c r="W13" t="n">
         <v>170.2009937809612</v>
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>277.0092604360253</v>
       </c>
       <c r="C14" t="n">
-        <v>265.020577393707</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>256.001881438235</v>
@@ -1622,7 +1622,7 @@
         <v>298.8325260922642</v>
       </c>
       <c r="H14" t="n">
-        <v>89.83273856128336</v>
+        <v>216.2294497816569</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>71.88509579130815</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>108.9489477341494</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>139.2413130842302</v>
       </c>
       <c r="V14" t="n">
         <v>220.5156376762044</v>
@@ -1670,10 +1670,10 @@
         <v>245.8157371541613</v>
       </c>
       <c r="X14" t="n">
-        <v>265.1159953869079</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>276.5125931831067</v>
+        <v>83.16783769763461</v>
       </c>
     </row>
     <row r="15">
@@ -1698,13 +1698,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
-        <v>127.4323455528373</v>
+        <v>127.4323455528363</v>
       </c>
       <c r="H15" t="n">
         <v>98.85281891431895</v>
       </c>
       <c r="I15" t="n">
-        <v>67.39308974070319</v>
+        <v>67.39308974070381</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>68.62597131072236</v>
+        <v>68.62597131072238</v>
       </c>
       <c r="C16" t="n">
-        <v>54.82596615612285</v>
+        <v>54.82596615612286</v>
       </c>
       <c r="D16" t="n">
-        <v>38.44733055370124</v>
+        <v>38.44733055370125</v>
       </c>
       <c r="E16" t="n">
-        <v>37.39508040948068</v>
+        <v>37.3950804094807</v>
       </c>
       <c r="F16" t="n">
-        <v>37.86200473766699</v>
+        <v>37.86200473766701</v>
       </c>
       <c r="G16" t="n">
-        <v>54.12927163178261</v>
+        <v>54.12927163178262</v>
       </c>
       <c r="H16" t="n">
-        <v>44.61896381776783</v>
+        <v>44.61896381776785</v>
       </c>
       <c r="I16" t="n">
-        <v>29.44355466213279</v>
+        <v>29.44355466213281</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.59837805321935</v>
+        <v>34.59837805321936</v>
       </c>
       <c r="S16" t="n">
-        <v>98.34923509440679</v>
+        <v>98.34923509440681</v>
       </c>
       <c r="T16" t="n">
         <v>117.7215487038539</v>
       </c>
       <c r="U16" t="n">
-        <v>171.2240878384011</v>
+        <v>171.2240878384012</v>
       </c>
       <c r="V16" t="n">
-        <v>145.0341077103479</v>
+        <v>145.034107710348</v>
       </c>
       <c r="W16" t="n">
         <v>170.2009937809612</v>
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>224.9534317429507</v>
+        <v>224.9534317429506</v>
       </c>
       <c r="C17" t="n">
-        <v>212.9647487006325</v>
+        <v>212.9647487006323</v>
       </c>
       <c r="D17" t="n">
-        <v>203.9460527451604</v>
+        <v>203.9460527451603</v>
       </c>
       <c r="E17" t="n">
-        <v>225.688190315066</v>
+        <v>225.6881903150658</v>
       </c>
       <c r="F17" t="n">
-        <v>244.8600064030431</v>
+        <v>244.860006403043</v>
       </c>
       <c r="G17" t="n">
-        <v>246.7766973991896</v>
+        <v>246.7766973991895</v>
       </c>
       <c r="H17" t="n">
-        <v>164.1736210885823</v>
+        <v>164.1736210885822</v>
       </c>
       <c r="I17" t="n">
-        <v>5.300273436959136</v>
+        <v>5.300273436958975</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>19.82926709823206</v>
+        <v>19.82926709823339</v>
       </c>
       <c r="T17" t="n">
-        <v>56.89311904107485</v>
+        <v>56.89311904107467</v>
       </c>
       <c r="U17" t="n">
-        <v>87.1854843911556</v>
+        <v>87.18548439115543</v>
       </c>
       <c r="V17" t="n">
-        <v>168.4598089831298</v>
+        <v>168.4598089831297</v>
       </c>
       <c r="W17" t="n">
-        <v>193.7599084610868</v>
+        <v>193.7599084610866</v>
       </c>
       <c r="X17" t="n">
-        <v>213.0601666938334</v>
+        <v>213.0601666938332</v>
       </c>
       <c r="Y17" t="n">
-        <v>224.4567644900321</v>
+        <v>224.4567644900322</v>
       </c>
     </row>
     <row r="18">
@@ -1935,7 +1935,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
-        <v>127.4323455528373</v>
+        <v>127.4323455528369</v>
       </c>
       <c r="H18" t="n">
         <v>98.85281891431895</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>16.5701426176478</v>
+        <v>16.57014261764763</v>
       </c>
       <c r="C19" t="n">
-        <v>2.770137463048286</v>
+        <v>2.770137463048115</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.073442938708045</v>
+        <v>2.073442938707875</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>46.29340640133223</v>
+        <v>46.29340640133206</v>
       </c>
       <c r="T19" t="n">
-        <v>65.66572001077931</v>
+        <v>65.66572001077914</v>
       </c>
       <c r="U19" t="n">
-        <v>119.1682591453266</v>
+        <v>119.1682591453264</v>
       </c>
       <c r="V19" t="n">
-        <v>92.97827901727339</v>
+        <v>92.97827901727322</v>
       </c>
       <c r="W19" t="n">
-        <v>118.1451650878867</v>
+        <v>118.1451650878865</v>
       </c>
       <c r="X19" t="n">
-        <v>63.79026708368977</v>
+        <v>63.7902670836896</v>
       </c>
       <c r="Y19" t="n">
-        <v>54.66513483975746</v>
+        <v>54.66513483975729</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>224.9534317429507</v>
+        <v>224.9534317429506</v>
       </c>
       <c r="C20" t="n">
-        <v>212.9647487006325</v>
+        <v>212.9647487006323</v>
       </c>
       <c r="D20" t="n">
-        <v>203.9460527451604</v>
+        <v>203.9460527451603</v>
       </c>
       <c r="E20" t="n">
-        <v>225.688190315066</v>
+        <v>225.6881903150658</v>
       </c>
       <c r="F20" t="n">
-        <v>244.8600064030431</v>
+        <v>244.860006403043</v>
       </c>
       <c r="G20" t="n">
-        <v>246.7766973991896</v>
+        <v>246.7766973991895</v>
       </c>
       <c r="H20" t="n">
-        <v>164.1736210885823</v>
+        <v>164.1736210885822</v>
       </c>
       <c r="I20" t="n">
-        <v>5.300273436959145</v>
+        <v>5.300273436959003</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>19.82926709823356</v>
+        <v>19.82926709823342</v>
       </c>
       <c r="T20" t="n">
-        <v>56.89311904107485</v>
+        <v>56.8931190410747</v>
       </c>
       <c r="U20" t="n">
-        <v>87.1854843911556</v>
+        <v>87.18548439115546</v>
       </c>
       <c r="V20" t="n">
-        <v>168.4598089831298</v>
+        <v>168.4598089831297</v>
       </c>
       <c r="W20" t="n">
-        <v>193.7599084610868</v>
+        <v>193.7599084610866</v>
       </c>
       <c r="X20" t="n">
-        <v>213.0601666938334</v>
+        <v>213.0601666938332</v>
       </c>
       <c r="Y20" t="n">
-        <v>224.4567644900321</v>
+        <v>224.456764490032</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>98.85281891431895</v>
       </c>
       <c r="I21" t="n">
-        <v>67.39308974070319</v>
+        <v>67.39308974070381</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>58.63574390140238</v>
+        <v>58.63574390140148</v>
       </c>
       <c r="S21" t="n">
         <v>151.1067464546052</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>16.5701426176478</v>
+        <v>16.57014261764766</v>
       </c>
       <c r="C22" t="n">
-        <v>2.770137463048286</v>
+        <v>2.770137463048144</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.073442938708045</v>
+        <v>2.073442938707903</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>46.29340640133223</v>
+        <v>46.29340640133209</v>
       </c>
       <c r="T22" t="n">
-        <v>65.66572001077931</v>
+        <v>65.66572001077917</v>
       </c>
       <c r="U22" t="n">
-        <v>119.1682591453266</v>
+        <v>119.1682591453264</v>
       </c>
       <c r="V22" t="n">
-        <v>92.97827901727339</v>
+        <v>92.97827901727325</v>
       </c>
       <c r="W22" t="n">
-        <v>118.1451650878867</v>
+        <v>118.1451650878865</v>
       </c>
       <c r="X22" t="n">
-        <v>63.79026708368977</v>
+        <v>63.79026708368963</v>
       </c>
       <c r="Y22" t="n">
-        <v>54.66513483975746</v>
+        <v>54.66513483975731</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>224.9534317429507</v>
+        <v>224.9534317429506</v>
       </c>
       <c r="C23" t="n">
-        <v>212.9647487006325</v>
+        <v>212.9647487006323</v>
       </c>
       <c r="D23" t="n">
-        <v>203.9460527451604</v>
+        <v>203.9460527451603</v>
       </c>
       <c r="E23" t="n">
-        <v>225.688190315066</v>
+        <v>225.6881903150658</v>
       </c>
       <c r="F23" t="n">
-        <v>244.8600064030431</v>
+        <v>244.860006403043</v>
       </c>
       <c r="G23" t="n">
-        <v>246.7766973991896</v>
+        <v>246.7766973991895</v>
       </c>
       <c r="H23" t="n">
-        <v>164.1736210885823</v>
+        <v>164.1736210885822</v>
       </c>
       <c r="I23" t="n">
-        <v>5.300273436959136</v>
+        <v>5.300273436958975</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>19.82926709823356</v>
+        <v>19.82926709823339</v>
       </c>
       <c r="T23" t="n">
-        <v>56.89311904107485</v>
+        <v>56.89311904107467</v>
       </c>
       <c r="U23" t="n">
-        <v>87.1854843911556</v>
+        <v>87.18548439115543</v>
       </c>
       <c r="V23" t="n">
-        <v>168.4598089831298</v>
+        <v>168.4598089831297</v>
       </c>
       <c r="W23" t="n">
-        <v>193.7599084610868</v>
+        <v>193.7599084610866</v>
       </c>
       <c r="X23" t="n">
-        <v>213.0601666938334</v>
+        <v>213.0601666938332</v>
       </c>
       <c r="Y23" t="n">
-        <v>224.4567644900321</v>
+        <v>224.456764490032</v>
       </c>
     </row>
     <row r="24">
@@ -2409,13 +2409,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
-        <v>127.4323455528373</v>
+        <v>127.4323455528363</v>
       </c>
       <c r="H24" t="n">
         <v>98.85281891431895</v>
       </c>
       <c r="I24" t="n">
-        <v>67.39308974070319</v>
+        <v>67.39308974070207</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>16.5701426176478</v>
+        <v>16.57014261764763</v>
       </c>
       <c r="C25" t="n">
-        <v>2.770137463048286</v>
+        <v>2.770137463048115</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.073442938708045</v>
+        <v>2.073442938707875</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>46.29340640133223</v>
+        <v>46.29340640133206</v>
       </c>
       <c r="T25" t="n">
-        <v>65.66572001077931</v>
+        <v>65.66572001077914</v>
       </c>
       <c r="U25" t="n">
-        <v>119.1682591453266</v>
+        <v>119.1682591453264</v>
       </c>
       <c r="V25" t="n">
-        <v>92.97827901727339</v>
+        <v>92.97827901727322</v>
       </c>
       <c r="W25" t="n">
-        <v>118.1451650878867</v>
+        <v>118.1451650878865</v>
       </c>
       <c r="X25" t="n">
-        <v>63.79026708368977</v>
+        <v>63.7902670836896</v>
       </c>
       <c r="Y25" t="n">
-        <v>54.66513483975746</v>
+        <v>54.66513483975729</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>264.1930005258181</v>
+        <v>264.193000525818</v>
       </c>
       <c r="C26" t="n">
         <v>252.2043174834998</v>
@@ -2570,10 +2570,10 @@
         <v>286.0162661820569</v>
       </c>
       <c r="H26" t="n">
-        <v>203.4131898714497</v>
+        <v>203.4131898714496</v>
       </c>
       <c r="I26" t="n">
-        <v>44.53984221982648</v>
+        <v>44.53984221982646</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>59.06883588110091</v>
+        <v>59.0688358811009</v>
       </c>
       <c r="T26" t="n">
-        <v>96.13268782394218</v>
+        <v>96.13268782394216</v>
       </c>
       <c r="U26" t="n">
         <v>126.4250531740229</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>55.80971140051514</v>
+        <v>55.80971140051513</v>
       </c>
       <c r="C28" t="n">
-        <v>42.00970624591562</v>
+        <v>42.00970624591561</v>
       </c>
       <c r="D28" t="n">
-        <v>25.63107064349401</v>
+        <v>25.631070643494</v>
       </c>
       <c r="E28" t="n">
-        <v>24.57882049927346</v>
+        <v>24.57882049927345</v>
       </c>
       <c r="F28" t="n">
-        <v>25.04574482745977</v>
+        <v>25.04574482745976</v>
       </c>
       <c r="G28" t="n">
-        <v>41.31301172157539</v>
+        <v>41.31301172157537</v>
       </c>
       <c r="H28" t="n">
-        <v>31.80270390756062</v>
+        <v>31.8027039075606</v>
       </c>
       <c r="I28" t="n">
-        <v>16.62729475192557</v>
+        <v>16.62729475192556</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.78211814301212</v>
+        <v>21.78211814301211</v>
       </c>
       <c r="S28" t="n">
-        <v>85.53297518419957</v>
+        <v>85.53297518419956</v>
       </c>
       <c r="T28" t="n">
         <v>104.9052887936466</v>
@@ -2779,7 +2779,7 @@
         <v>103.0298358665571</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.90470362262479</v>
+        <v>93.90470362262478</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>264.1930005258181</v>
+        <v>264.193000525818</v>
       </c>
       <c r="C29" t="n">
         <v>252.2043174834998</v>
@@ -2807,10 +2807,10 @@
         <v>286.0162661820569</v>
       </c>
       <c r="H29" t="n">
-        <v>203.4131898714497</v>
+        <v>203.4131898714505</v>
       </c>
       <c r="I29" t="n">
-        <v>44.53984221982648</v>
+        <v>44.53984221982646</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>59.0688358811009</v>
+        <v>59.06883588110088</v>
       </c>
       <c r="T29" t="n">
-        <v>96.13268782394218</v>
+        <v>96.13268782394216</v>
       </c>
       <c r="U29" t="n">
         <v>126.4250531740229</v>
@@ -2852,7 +2852,7 @@
         <v>207.6993777659972</v>
       </c>
       <c r="W29" t="n">
-        <v>232.9994772439533</v>
+        <v>232.9994772439541</v>
       </c>
       <c r="X29" t="n">
         <v>252.2997354767007</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.80971140051514</v>
+        <v>55.80971140051513</v>
       </c>
       <c r="C31" t="n">
-        <v>42.00970624591562</v>
+        <v>42.00970624591561</v>
       </c>
       <c r="D31" t="n">
-        <v>25.63107064349401</v>
+        <v>25.631070643494</v>
       </c>
       <c r="E31" t="n">
-        <v>24.57882049927346</v>
+        <v>24.57882049927345</v>
       </c>
       <c r="F31" t="n">
-        <v>25.04574482745977</v>
+        <v>25.04574482745976</v>
       </c>
       <c r="G31" t="n">
-        <v>41.31301172157539</v>
+        <v>41.31301172157537</v>
       </c>
       <c r="H31" t="n">
-        <v>31.80270390756062</v>
+        <v>31.8027039075606</v>
       </c>
       <c r="I31" t="n">
-        <v>16.62729475192557</v>
+        <v>16.62729475192556</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.78211814301212</v>
+        <v>21.78211814301211</v>
       </c>
       <c r="S31" t="n">
-        <v>85.53297518419957</v>
+        <v>85.53297518419956</v>
       </c>
       <c r="T31" t="n">
         <v>104.9052887936466</v>
@@ -3016,7 +3016,7 @@
         <v>103.0298358665571</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.90470362262479</v>
+        <v>93.90470362262478</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>247.7530514067038</v>
+        <v>247.753051406704</v>
       </c>
       <c r="C32" t="n">
-        <v>235.7643683643855</v>
+        <v>235.7643683643857</v>
       </c>
       <c r="D32" t="n">
-        <v>226.7456724089135</v>
+        <v>226.7456724089137</v>
       </c>
       <c r="E32" t="n">
-        <v>248.487809978819</v>
+        <v>248.4878099788193</v>
       </c>
       <c r="F32" t="n">
-        <v>267.6596260667962</v>
+        <v>267.6596260667964</v>
       </c>
       <c r="G32" t="n">
-        <v>269.5763170629427</v>
+        <v>269.5763170629429</v>
       </c>
       <c r="H32" t="n">
-        <v>186.9732407523354</v>
+        <v>186.9732407523356</v>
       </c>
       <c r="I32" t="n">
-        <v>28.09989310071219</v>
+        <v>28.09989310071242</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>42.62888676198661</v>
+        <v>42.62888676198683</v>
       </c>
       <c r="T32" t="n">
-        <v>79.69273870482789</v>
+        <v>79.69273870482812</v>
       </c>
       <c r="U32" t="n">
-        <v>109.9851040549086</v>
+        <v>109.9851040549089</v>
       </c>
       <c r="V32" t="n">
-        <v>191.2594286468829</v>
+        <v>191.2594286468831</v>
       </c>
       <c r="W32" t="n">
-        <v>216.5595281248398</v>
+        <v>216.55952812484</v>
       </c>
       <c r="X32" t="n">
-        <v>235.8597863575864</v>
+        <v>235.8597863575866</v>
       </c>
       <c r="Y32" t="n">
-        <v>247.2563841537852</v>
+        <v>247.2563841537854</v>
       </c>
     </row>
     <row r="33">
@@ -3117,7 +3117,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F33" t="n">
-        <v>133.3468600696255</v>
+        <v>133.3468600696254</v>
       </c>
       <c r="G33" t="n">
         <v>127.4323455528363</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>39.36976228140085</v>
+        <v>39.36976228140108</v>
       </c>
       <c r="C34" t="n">
-        <v>25.56975712680133</v>
+        <v>25.56975712680156</v>
       </c>
       <c r="D34" t="n">
-        <v>9.191121524379724</v>
+        <v>9.191121524379952</v>
       </c>
       <c r="E34" t="n">
-        <v>8.138871380159173</v>
+        <v>8.138871380159401</v>
       </c>
       <c r="F34" t="n">
-        <v>8.605795708345482</v>
+        <v>8.60579570834571</v>
       </c>
       <c r="G34" t="n">
-        <v>24.87306260246109</v>
+        <v>24.87306260246132</v>
       </c>
       <c r="H34" t="n">
-        <v>15.36275478844633</v>
+        <v>15.36275478844655</v>
       </c>
       <c r="I34" t="n">
-        <v>0.1873456328112848</v>
+        <v>0.1873456328115121</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>5.342169023897836</v>
+        <v>5.342169023898063</v>
       </c>
       <c r="S34" t="n">
-        <v>69.09302606508528</v>
+        <v>69.09302606508551</v>
       </c>
       <c r="T34" t="n">
-        <v>88.46533967453236</v>
+        <v>88.46533967453259</v>
       </c>
       <c r="U34" t="n">
-        <v>141.9678788090797</v>
+        <v>141.9678788090799</v>
       </c>
       <c r="V34" t="n">
-        <v>115.7778986810264</v>
+        <v>115.7778986810267</v>
       </c>
       <c r="W34" t="n">
-        <v>140.9447847516397</v>
+        <v>140.9447847516399</v>
       </c>
       <c r="X34" t="n">
-        <v>86.58988674744282</v>
+        <v>86.58988674744305</v>
       </c>
       <c r="Y34" t="n">
-        <v>77.46475450351051</v>
+        <v>77.46475450351073</v>
       </c>
     </row>
     <row r="35">
@@ -3269,22 +3269,22 @@
         <v>212.9647487006324</v>
       </c>
       <c r="D35" t="n">
-        <v>203.9460527451604</v>
+        <v>203.9460527451603</v>
       </c>
       <c r="E35" t="n">
         <v>225.6881903150659</v>
       </c>
       <c r="F35" t="n">
-        <v>244.8600064030431</v>
+        <v>244.860006403043</v>
       </c>
       <c r="G35" t="n">
         <v>246.7766973991895</v>
       </c>
       <c r="H35" t="n">
-        <v>164.1736210885823</v>
+        <v>164.1736210885822</v>
       </c>
       <c r="I35" t="n">
-        <v>5.30027343695906</v>
+        <v>5.300273436959031</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,19 +3314,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>19.82926709823348</v>
+        <v>19.82926709823346</v>
       </c>
       <c r="T35" t="n">
-        <v>56.89311904107476</v>
+        <v>56.89311904107473</v>
       </c>
       <c r="U35" t="n">
-        <v>87.18548439115551</v>
+        <v>87.18548439115548</v>
       </c>
       <c r="V35" t="n">
-        <v>168.4598089831298</v>
+        <v>168.4598089831297</v>
       </c>
       <c r="W35" t="n">
-        <v>193.7599084610867</v>
+        <v>193.7599084610866</v>
       </c>
       <c r="X35" t="n">
         <v>213.0601666938333</v>
@@ -3351,13 +3351,13 @@
         <v>137.45025063969</v>
       </c>
       <c r="E36" t="n">
-        <v>145.5577298436975</v>
+        <v>145.5577298436986</v>
       </c>
       <c r="F36" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G36" t="n">
-        <v>127.4323455528373</v>
+        <v>127.4323455528363</v>
       </c>
       <c r="H36" t="n">
         <v>98.85281891431895</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.57014261764772</v>
+        <v>16.57014261764769</v>
       </c>
       <c r="C37" t="n">
-        <v>2.770137463048201</v>
+        <v>2.770137463048172</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.07344293870796</v>
+        <v>2.073442938707931</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>46.29340640133215</v>
+        <v>46.29340640133212</v>
       </c>
       <c r="T37" t="n">
-        <v>65.66572001077922</v>
+        <v>65.6657200107792</v>
       </c>
       <c r="U37" t="n">
         <v>119.1682591453265</v>
       </c>
       <c r="V37" t="n">
-        <v>92.97827901727331</v>
+        <v>92.97827901727328</v>
       </c>
       <c r="W37" t="n">
-        <v>118.1451650878866</v>
+        <v>118.1451650878865</v>
       </c>
       <c r="X37" t="n">
-        <v>63.79026708368968</v>
+        <v>63.79026708368966</v>
       </c>
       <c r="Y37" t="n">
-        <v>54.66513483975737</v>
+        <v>54.66513483975734</v>
       </c>
     </row>
     <row r="38">
@@ -3506,22 +3506,22 @@
         <v>212.9647487006324</v>
       </c>
       <c r="D38" t="n">
-        <v>203.9460527451604</v>
+        <v>203.9460527451603</v>
       </c>
       <c r="E38" t="n">
         <v>225.6881903150659</v>
       </c>
       <c r="F38" t="n">
-        <v>244.8600064030431</v>
+        <v>244.860006403043</v>
       </c>
       <c r="G38" t="n">
         <v>246.7766973991895</v>
       </c>
       <c r="H38" t="n">
-        <v>164.1736210885823</v>
+        <v>164.1736210885822</v>
       </c>
       <c r="I38" t="n">
-        <v>5.300273436959051</v>
+        <v>5.300273436959031</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,19 +3551,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>19.82926709823348</v>
+        <v>19.82926709823345</v>
       </c>
       <c r="T38" t="n">
-        <v>56.89311904107476</v>
+        <v>56.89311904107473</v>
       </c>
       <c r="U38" t="n">
-        <v>87.18548439115551</v>
+        <v>87.18548439115548</v>
       </c>
       <c r="V38" t="n">
-        <v>168.4598089831298</v>
+        <v>168.4598089831297</v>
       </c>
       <c r="W38" t="n">
-        <v>193.7599084610867</v>
+        <v>193.7599084610866</v>
       </c>
       <c r="X38" t="n">
         <v>213.0601666938333</v>
@@ -3600,7 +3600,7 @@
         <v>98.85281891431895</v>
       </c>
       <c r="I39" t="n">
-        <v>67.39308974070319</v>
+        <v>67.39308974070426</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.57014261764772</v>
+        <v>16.57014261764769</v>
       </c>
       <c r="C40" t="n">
-        <v>2.770137463048201</v>
+        <v>2.770137463048172</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.07344293870796</v>
+        <v>2.073442938707931</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>46.29340640133215</v>
+        <v>46.29340640133212</v>
       </c>
       <c r="T40" t="n">
-        <v>65.66572001077922</v>
+        <v>65.6657200107792</v>
       </c>
       <c r="U40" t="n">
         <v>119.1682591453265</v>
       </c>
       <c r="V40" t="n">
-        <v>92.97827901727331</v>
+        <v>92.97827901727328</v>
       </c>
       <c r="W40" t="n">
-        <v>118.1451650878866</v>
+        <v>118.1451650878865</v>
       </c>
       <c r="X40" t="n">
-        <v>63.79026708368968</v>
+        <v>63.79026708368966</v>
       </c>
       <c r="Y40" t="n">
-        <v>54.66513483975737</v>
+        <v>54.66513483975734</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>257.4523818226825</v>
+        <v>257.4523818226826</v>
       </c>
       <c r="C41" t="n">
-        <v>245.4636987803642</v>
+        <v>245.4636987803643</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>236.4450028248923</v>
       </c>
       <c r="E41" t="n">
-        <v>258.1871403947977</v>
+        <v>258.1871403947978</v>
       </c>
       <c r="F41" t="n">
-        <v>277.3589564827749</v>
+        <v>106.949576282408</v>
       </c>
       <c r="G41" t="n">
-        <v>279.2756474789214</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>196.6725711683141</v>
       </c>
       <c r="I41" t="n">
-        <v>13.01883368642359</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>52.3282171779653</v>
+        <v>52.32821717796539</v>
       </c>
       <c r="T41" t="n">
-        <v>89.39206912080658</v>
+        <v>89.39206912080667</v>
       </c>
       <c r="U41" t="n">
-        <v>119.6844344708873</v>
+        <v>119.6844344708874</v>
       </c>
       <c r="V41" t="n">
-        <v>200.9587590628616</v>
+        <v>200.9587590628617</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>226.2588585408186</v>
       </c>
       <c r="X41" t="n">
-        <v>245.5591167735651</v>
+        <v>245.5591167735652</v>
       </c>
       <c r="Y41" t="n">
         <v>256.9557145697639</v>
@@ -3819,7 +3819,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C42" t="n">
-        <v>160.0866360314558</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D42" t="n">
         <v>137.45025063969</v>
@@ -3834,7 +3834,7 @@
         <v>127.4323455528363</v>
       </c>
       <c r="H42" t="n">
-        <v>98.85281891431895</v>
+        <v>98.85281891432001</v>
       </c>
       <c r="I42" t="n">
         <v>67.39308974070319</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>49.06909269737955</v>
+        <v>49.06909269737963</v>
       </c>
       <c r="C43" t="n">
-        <v>35.26908754278003</v>
+        <v>35.26908754278011</v>
       </c>
       <c r="D43" t="n">
-        <v>18.89045194035842</v>
+        <v>18.8904519403585</v>
       </c>
       <c r="E43" t="n">
-        <v>17.83820179613787</v>
+        <v>17.83820179613795</v>
       </c>
       <c r="F43" t="n">
-        <v>18.30512612432418</v>
+        <v>18.30512612432426</v>
       </c>
       <c r="G43" t="n">
-        <v>34.57239301843979</v>
+        <v>34.57239301843988</v>
       </c>
       <c r="H43" t="n">
-        <v>25.06208520442502</v>
+        <v>25.06208520442511</v>
       </c>
       <c r="I43" t="n">
-        <v>9.886676048789978</v>
+        <v>9.886676048790063</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>15.04149943987653</v>
+        <v>15.04149943987662</v>
       </c>
       <c r="S43" t="n">
-        <v>78.79235648106398</v>
+        <v>78.79235648106406</v>
       </c>
       <c r="T43" t="n">
-        <v>98.16467009051105</v>
+        <v>98.16467009051114</v>
       </c>
       <c r="U43" t="n">
-        <v>151.6672092250583</v>
+        <v>151.6672092250584</v>
       </c>
       <c r="V43" t="n">
-        <v>125.4772290970051</v>
+        <v>125.4772290970052</v>
       </c>
       <c r="W43" t="n">
-        <v>150.6441151676184</v>
+        <v>150.6441151676185</v>
       </c>
       <c r="X43" t="n">
-        <v>96.28921716342151</v>
+        <v>96.2892171634216</v>
       </c>
       <c r="Y43" t="n">
-        <v>87.1640849194892</v>
+        <v>87.16408491948928</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>257.4523818226825</v>
+        <v>257.4523818226826</v>
       </c>
       <c r="C44" t="n">
-        <v>245.4636987803642</v>
+        <v>245.4636987803643</v>
       </c>
       <c r="D44" t="n">
-        <v>236.4450028248922</v>
+        <v>236.4450028248923</v>
       </c>
       <c r="E44" t="n">
-        <v>258.1871403947977</v>
+        <v>87.77776019443088</v>
       </c>
       <c r="F44" t="n">
-        <v>254.8915464071681</v>
+        <v>277.3589564827749</v>
       </c>
       <c r="G44" t="n">
-        <v>279.2756474789214</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>196.6725711683141</v>
+        <v>196.6725711683142</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>52.3282171779653</v>
+        <v>52.32821717796539</v>
       </c>
       <c r="T44" t="n">
-        <v>89.39206912080658</v>
+        <v>89.39206912080667</v>
       </c>
       <c r="U44" t="n">
-        <v>119.6844344708873</v>
+        <v>119.6844344708874</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>200.9587590628617</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>226.2588585408186</v>
       </c>
       <c r="X44" t="n">
-        <v>245.5591167735651</v>
+        <v>245.5591167735652</v>
       </c>
       <c r="Y44" t="n">
         <v>256.9557145697639</v>
@@ -4074,7 +4074,7 @@
         <v>98.85281891431895</v>
       </c>
       <c r="I45" t="n">
-        <v>67.39308974070319</v>
+        <v>67.39308974070426</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>58.63574390140238</v>
+        <v>58.63574390140148</v>
       </c>
       <c r="S45" t="n">
         <v>151.1067464546052</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>49.06909269737955</v>
+        <v>49.06909269737963</v>
       </c>
       <c r="C46" t="n">
-        <v>35.26908754278003</v>
+        <v>35.26908754278011</v>
       </c>
       <c r="D46" t="n">
-        <v>18.89045194035842</v>
+        <v>18.8904519403585</v>
       </c>
       <c r="E46" t="n">
-        <v>17.83820179613787</v>
+        <v>17.83820179613795</v>
       </c>
       <c r="F46" t="n">
-        <v>18.30512612432418</v>
+        <v>18.30512612432426</v>
       </c>
       <c r="G46" t="n">
-        <v>34.57239301843979</v>
+        <v>34.57239301843988</v>
       </c>
       <c r="H46" t="n">
-        <v>25.06208520442502</v>
+        <v>25.06208520442511</v>
       </c>
       <c r="I46" t="n">
-        <v>9.886676048789978</v>
+        <v>9.886676048790063</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>15.04149943987653</v>
+        <v>15.04149943987662</v>
       </c>
       <c r="S46" t="n">
-        <v>78.79235648106398</v>
+        <v>78.79235648106406</v>
       </c>
       <c r="T46" t="n">
-        <v>98.16467009051105</v>
+        <v>98.16467009051114</v>
       </c>
       <c r="U46" t="n">
-        <v>151.6672092250583</v>
+        <v>151.6672092250584</v>
       </c>
       <c r="V46" t="n">
-        <v>125.4772290970051</v>
+        <v>125.4772290970052</v>
       </c>
       <c r="W46" t="n">
-        <v>150.6441151676184</v>
+        <v>150.6441151676185</v>
       </c>
       <c r="X46" t="n">
-        <v>96.28921716342151</v>
+        <v>96.2892171634216</v>
       </c>
       <c r="Y46" t="n">
-        <v>87.1640849194892</v>
+        <v>87.16408491948928</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>232.7422517992815</v>
+        <v>59.11515304851453</v>
       </c>
       <c r="C2" t="n">
-        <v>232.7422517992815</v>
+        <v>59.11515304851453</v>
       </c>
       <c r="D2" t="n">
-        <v>232.7422517992815</v>
+        <v>59.11515304851453</v>
       </c>
       <c r="E2" t="n">
-        <v>231.9323518397185</v>
+        <v>59.11515304851453</v>
       </c>
       <c r="F2" t="n">
-        <v>221.8215651902929</v>
+        <v>49.00436639908891</v>
       </c>
       <c r="G2" t="n">
-        <v>209.7579826848849</v>
+        <v>36.94078389368094</v>
       </c>
       <c r="H2" t="n">
-        <v>209.7579826848849</v>
+        <v>36.94078389368094</v>
       </c>
       <c r="I2" t="n">
-        <v>36.94078389368089</v>
+        <v>36.94078389368094</v>
       </c>
       <c r="J2" t="n">
-        <v>108.9393281664865</v>
+        <v>108.9393281664866</v>
       </c>
       <c r="K2" t="n">
-        <v>349.0797002112693</v>
+        <v>349.0797002112694</v>
       </c>
       <c r="L2" t="n">
-        <v>447.8749351278167</v>
+        <v>696.9650732962157</v>
       </c>
       <c r="M2" t="n">
-        <v>841.1141013809047</v>
+        <v>841.1141013809074</v>
       </c>
       <c r="N2" t="n">
-        <v>1219.44546006862</v>
+        <v>1219.445460068623</v>
       </c>
       <c r="O2" t="n">
-        <v>1524.450044541454</v>
+        <v>1524.450044541457</v>
       </c>
       <c r="P2" t="n">
-        <v>1752.606940997508</v>
+        <v>1752.60694099751</v>
       </c>
       <c r="Q2" t="n">
-        <v>1847.039194684045</v>
+        <v>1847.039194684047</v>
       </c>
       <c r="R2" t="n">
-        <v>1756.400908179898</v>
+        <v>1756.400908179901</v>
       </c>
       <c r="S2" t="n">
-        <v>1569.171932810252</v>
+        <v>1569.171932810254</v>
       </c>
       <c r="T2" t="n">
-        <v>1569.171932810252</v>
+        <v>1344.812986541266</v>
       </c>
       <c r="U2" t="n">
-        <v>1314.286596524246</v>
+        <v>1089.92765025526</v>
       </c>
       <c r="V2" t="n">
-        <v>977.3073224201871</v>
+        <v>752.948376151201</v>
       </c>
       <c r="W2" t="n">
-        <v>614.7723922777882</v>
+        <v>390.4134460088021</v>
       </c>
       <c r="X2" t="n">
-        <v>232.7422517992815</v>
+        <v>59.11515304851453</v>
       </c>
       <c r="Y2" t="n">
-        <v>232.7422517992815</v>
+        <v>59.11515304851453</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>747.933401632484</v>
+        <v>700.8432491426572</v>
       </c>
       <c r="C3" t="n">
-        <v>586.2297288734387</v>
+        <v>539.1395763836119</v>
       </c>
       <c r="D3" t="n">
-        <v>447.3910918636507</v>
+        <v>400.300939373824</v>
       </c>
       <c r="E3" t="n">
-        <v>300.3630819205219</v>
+        <v>400.300939373824</v>
       </c>
       <c r="F3" t="n">
-        <v>165.6692838703963</v>
+        <v>265.6071413236983</v>
       </c>
       <c r="G3" t="n">
-        <v>36.94078389368089</v>
+        <v>136.8786413469829</v>
       </c>
       <c r="H3" t="n">
-        <v>36.94078389368089</v>
+        <v>36.94078389368094</v>
       </c>
       <c r="I3" t="n">
-        <v>36.94078389368089</v>
+        <v>36.94078389368094</v>
       </c>
       <c r="J3" t="n">
-        <v>97.19493042678704</v>
+        <v>97.1949304267871</v>
       </c>
       <c r="K3" t="n">
-        <v>326.6854829869757</v>
+        <v>326.6854829869758</v>
       </c>
       <c r="L3" t="n">
-        <v>692.5073281570913</v>
+        <v>630.6588740397465</v>
       </c>
       <c r="M3" t="n">
-        <v>1149.649528841392</v>
+        <v>1087.801074724048</v>
       </c>
       <c r="N3" t="n">
-        <v>1606.791729525693</v>
+        <v>1544.94327540835</v>
       </c>
       <c r="O3" t="n">
-        <v>1689.26756489845</v>
+        <v>1544.94327540835</v>
       </c>
       <c r="P3" t="n">
-        <v>1689.26756489845</v>
+        <v>1847.039194684047</v>
       </c>
       <c r="Q3" t="n">
-        <v>1847.039194684045</v>
+        <v>1847.039194684047</v>
       </c>
       <c r="R3" t="n">
-        <v>1847.039194684045</v>
+        <v>1787.254925778993</v>
       </c>
       <c r="S3" t="n">
-        <v>1694.239707696785</v>
+        <v>1634.455438791733</v>
       </c>
       <c r="T3" t="n">
-        <v>1694.239707696785</v>
+        <v>1445.770334957718</v>
       </c>
       <c r="U3" t="n">
-        <v>1475.744915295095</v>
+        <v>1227.275542556029</v>
       </c>
       <c r="V3" t="n">
-        <v>1297.791158886371</v>
+        <v>998.8799200043625</v>
       </c>
       <c r="W3" t="n">
-        <v>1297.791158886371</v>
+        <v>757.5640512376725</v>
       </c>
       <c r="X3" t="n">
-        <v>1099.874170764166</v>
+        <v>700.8432491426572</v>
       </c>
       <c r="Y3" t="n">
-        <v>907.3528444137448</v>
+        <v>700.8432491426572</v>
       </c>
     </row>
     <row r="4">
@@ -4462,43 +4462,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>569.0000291396134</v>
+        <v>36.94078389368094</v>
       </c>
       <c r="C4" t="n">
-        <v>569.0000291396134</v>
+        <v>36.94078389368094</v>
       </c>
       <c r="D4" t="n">
-        <v>569.0000291396134</v>
+        <v>36.94078389368094</v>
       </c>
       <c r="E4" t="n">
-        <v>517.7138327207799</v>
+        <v>36.94078389368094</v>
       </c>
       <c r="F4" t="n">
-        <v>365.2331777465571</v>
+        <v>36.94078389368094</v>
       </c>
       <c r="G4" t="n">
-        <v>196.3134291144071</v>
+        <v>36.94078389368094</v>
       </c>
       <c r="H4" t="n">
-        <v>36.94078389368089</v>
+        <v>36.94078389368094</v>
       </c>
       <c r="I4" t="n">
-        <v>36.94078389368089</v>
+        <v>36.94078389368094</v>
       </c>
       <c r="J4" t="n">
-        <v>36.94078389368089</v>
+        <v>36.94078389368094</v>
       </c>
       <c r="K4" t="n">
-        <v>70.54497163832431</v>
+        <v>70.54497163832436</v>
       </c>
       <c r="L4" t="n">
-        <v>171.1520510385838</v>
+        <v>171.1520510385839</v>
       </c>
       <c r="M4" t="n">
-        <v>289.1455571661855</v>
+        <v>289.1455571661856</v>
       </c>
       <c r="N4" t="n">
-        <v>407.5678989157859</v>
+        <v>407.567898915786</v>
       </c>
       <c r="O4" t="n">
         <v>506.0315454114756</v>
@@ -4507,31 +4507,31 @@
         <v>569.0000291396134</v>
       </c>
       <c r="Q4" t="n">
-        <v>569.0000291396134</v>
+        <v>530.4626877933024</v>
       </c>
       <c r="R4" t="n">
-        <v>569.0000291396134</v>
+        <v>530.4626877933024</v>
       </c>
       <c r="S4" t="n">
-        <v>569.0000291396134</v>
+        <v>530.4626877933024</v>
       </c>
       <c r="T4" t="n">
-        <v>569.0000291396134</v>
+        <v>528.9285524398827</v>
       </c>
       <c r="U4" t="n">
-        <v>569.0000291396134</v>
+        <v>528.9285524398827</v>
       </c>
       <c r="V4" t="n">
-        <v>569.0000291396134</v>
+        <v>268.1932479983052</v>
       </c>
       <c r="W4" t="n">
-        <v>569.0000291396134</v>
+        <v>268.1932479983052</v>
       </c>
       <c r="X4" t="n">
-        <v>569.0000291396134</v>
+        <v>36.94078389368094</v>
       </c>
       <c r="Y4" t="n">
-        <v>569.0000291396134</v>
+        <v>36.94078389368094</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>787.0240813352419</v>
+        <v>626.7180717336116</v>
       </c>
       <c r="C5" t="n">
-        <v>787.0240813352419</v>
+        <v>626.7180717336116</v>
       </c>
       <c r="D5" t="n">
-        <v>414.2001165624655</v>
+        <v>626.7180717336116</v>
       </c>
       <c r="E5" t="n">
-        <v>414.2001165624655</v>
+        <v>231.9323518397185</v>
       </c>
       <c r="F5" t="n">
-        <v>49.00436639908886</v>
+        <v>221.8215651902929</v>
       </c>
       <c r="G5" t="n">
-        <v>36.94078389368089</v>
+        <v>209.757982684885</v>
       </c>
       <c r="H5" t="n">
-        <v>36.94078389368089</v>
+        <v>209.757982684885</v>
       </c>
       <c r="I5" t="n">
-        <v>36.94078389368089</v>
+        <v>36.94078389368094</v>
       </c>
       <c r="J5" t="n">
-        <v>36.94078389368089</v>
+        <v>108.9393281664866</v>
       </c>
       <c r="K5" t="n">
-        <v>277.0811559384637</v>
+        <v>349.0797002112694</v>
       </c>
       <c r="L5" t="n">
-        <v>624.96652902341</v>
+        <v>696.9650732962157</v>
       </c>
       <c r="M5" t="n">
-        <v>1018.205695276498</v>
+        <v>841.1141013809074</v>
       </c>
       <c r="N5" t="n">
-        <v>1396.537053964214</v>
+        <v>1219.445460068623</v>
       </c>
       <c r="O5" t="n">
-        <v>1701.541638437047</v>
+        <v>1524.450044541457</v>
       </c>
       <c r="P5" t="n">
-        <v>1847.039194684045</v>
+        <v>1752.60694099751</v>
       </c>
       <c r="Q5" t="n">
-        <v>1847.039194684045</v>
+        <v>1847.039194684047</v>
       </c>
       <c r="R5" t="n">
-        <v>1847.039194684045</v>
+        <v>1756.400908179901</v>
       </c>
       <c r="S5" t="n">
-        <v>1659.810219314399</v>
+        <v>1756.400908179901</v>
       </c>
       <c r="T5" t="n">
-        <v>1435.45127304541</v>
+        <v>1532.041961910912</v>
       </c>
       <c r="U5" t="n">
-        <v>1180.565936759404</v>
+        <v>1277.156625624906</v>
       </c>
       <c r="V5" t="n">
-        <v>1180.565936759404</v>
+        <v>1277.156625624906</v>
       </c>
       <c r="W5" t="n">
-        <v>1180.565936759404</v>
+        <v>914.621695482507</v>
       </c>
       <c r="X5" t="n">
-        <v>1180.565936759404</v>
+        <v>626.7180717336116</v>
       </c>
       <c r="Y5" t="n">
-        <v>787.0240813352419</v>
+        <v>626.7180717336116</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>508.8064316555264</v>
+        <v>641.5434891008961</v>
       </c>
       <c r="C6" t="n">
-        <v>347.1027588964811</v>
+        <v>547.3289493169527</v>
       </c>
       <c r="D6" t="n">
-        <v>208.2641218866931</v>
+        <v>547.3289493169527</v>
       </c>
       <c r="E6" t="n">
-        <v>61.23611194356437</v>
+        <v>400.300939373824</v>
       </c>
       <c r="F6" t="n">
-        <v>61.23611194356437</v>
+        <v>265.6071413236983</v>
       </c>
       <c r="G6" t="n">
-        <v>61.23611194356437</v>
+        <v>136.8786413469829</v>
       </c>
       <c r="H6" t="n">
-        <v>36.94078389368089</v>
+        <v>36.94078389368094</v>
       </c>
       <c r="I6" t="n">
-        <v>36.94078389368089</v>
+        <v>36.94078389368094</v>
       </c>
       <c r="J6" t="n">
-        <v>97.19493042678704</v>
+        <v>97.1949304267871</v>
       </c>
       <c r="K6" t="n">
-        <v>326.6854829869757</v>
+        <v>326.6854829869758</v>
       </c>
       <c r="L6" t="n">
-        <v>692.5073281570913</v>
+        <v>537.8294941543031</v>
       </c>
       <c r="M6" t="n">
-        <v>1149.649528841392</v>
+        <v>994.9716948386049</v>
       </c>
       <c r="N6" t="n">
-        <v>1606.791729525693</v>
+        <v>994.9716948386049</v>
       </c>
       <c r="O6" t="n">
-        <v>1606.791729525693</v>
+        <v>1387.171645622756</v>
       </c>
       <c r="P6" t="n">
-        <v>1847.039194684045</v>
+        <v>1689.267564898453</v>
       </c>
       <c r="Q6" t="n">
-        <v>1847.039194684045</v>
+        <v>1847.039194684047</v>
       </c>
       <c r="R6" t="n">
-        <v>1847.039194684045</v>
+        <v>1787.254925778993</v>
       </c>
       <c r="S6" t="n">
-        <v>1694.239707696785</v>
+        <v>1634.455438791733</v>
       </c>
       <c r="T6" t="n">
-        <v>1505.55460386277</v>
+        <v>1445.770334957718</v>
       </c>
       <c r="U6" t="n">
-        <v>1287.05981146108</v>
+        <v>1227.275542556029</v>
       </c>
       <c r="V6" t="n">
-        <v>1058.664188909414</v>
+        <v>998.8799200043625</v>
       </c>
       <c r="W6" t="n">
-        <v>1058.664188909414</v>
+        <v>998.8799200043625</v>
       </c>
       <c r="X6" t="n">
-        <v>860.7472007872085</v>
+        <v>800.962931882157</v>
       </c>
       <c r="Y6" t="n">
-        <v>668.2258744367873</v>
+        <v>800.962931882157</v>
       </c>
     </row>
     <row r="7">
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>569.0000291396134</v>
+        <v>36.94078389368094</v>
       </c>
       <c r="C7" t="n">
-        <v>569.0000291396134</v>
+        <v>36.94078389368094</v>
       </c>
       <c r="D7" t="n">
-        <v>569.0000291396134</v>
+        <v>36.94078389368094</v>
       </c>
       <c r="E7" t="n">
-        <v>502.5442318973753</v>
+        <v>36.94078389368094</v>
       </c>
       <c r="F7" t="n">
-        <v>350.0635769231524</v>
+        <v>36.94078389368094</v>
       </c>
       <c r="G7" t="n">
-        <v>181.1438282910024</v>
+        <v>36.94078389368094</v>
       </c>
       <c r="H7" t="n">
-        <v>181.1438282910024</v>
+        <v>36.94078389368094</v>
       </c>
       <c r="I7" t="n">
-        <v>36.94078389368089</v>
+        <v>36.94078389368094</v>
       </c>
       <c r="J7" t="n">
-        <v>36.94078389368089</v>
+        <v>36.94078389368094</v>
       </c>
       <c r="K7" t="n">
-        <v>70.54497163832431</v>
+        <v>70.54497163832436</v>
       </c>
       <c r="L7" t="n">
-        <v>171.1520510385838</v>
+        <v>171.1520510385839</v>
       </c>
       <c r="M7" t="n">
-        <v>289.1455571661855</v>
+        <v>289.1455571661856</v>
       </c>
       <c r="N7" t="n">
-        <v>407.5678989157859</v>
+        <v>407.567898915786</v>
       </c>
       <c r="O7" t="n">
         <v>506.0315454114756</v>
@@ -4747,28 +4747,28 @@
         <v>569.0000291396134</v>
       </c>
       <c r="R7" t="n">
-        <v>569.0000291396134</v>
+        <v>556.2761385606029</v>
       </c>
       <c r="S7" t="n">
-        <v>569.0000291396134</v>
+        <v>556.2761385606029</v>
       </c>
       <c r="T7" t="n">
-        <v>569.0000291396134</v>
+        <v>323.0971853762818</v>
       </c>
       <c r="U7" t="n">
-        <v>569.0000291396134</v>
+        <v>323.0971853762818</v>
       </c>
       <c r="V7" t="n">
-        <v>569.0000291396134</v>
+        <v>323.0971853762818</v>
       </c>
       <c r="W7" t="n">
-        <v>569.0000291396134</v>
+        <v>36.94078389368094</v>
       </c>
       <c r="X7" t="n">
-        <v>569.0000291396134</v>
+        <v>36.94078389368094</v>
       </c>
       <c r="Y7" t="n">
-        <v>569.0000291396134</v>
+        <v>36.94078389368094</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>250.543516866697</v>
+        <v>397.0198996587235</v>
       </c>
       <c r="C8" t="n">
-        <v>237.0158240472368</v>
+        <v>397.0198996587235</v>
       </c>
       <c r="D8" t="n">
-        <v>237.0158240472368</v>
+        <v>397.0198996587235</v>
       </c>
       <c r="E8" t="n">
-        <v>237.0158240472368</v>
+        <v>397.0198996587235</v>
       </c>
       <c r="F8" t="n">
-        <v>226.9050373978112</v>
+        <v>386.9091130092979</v>
       </c>
       <c r="G8" t="n">
-        <v>214.8414548924032</v>
+        <v>374.84553050389</v>
       </c>
       <c r="H8" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I8" t="n">
         <v>42.02425610119923</v>
@@ -4826,28 +4826,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R8" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S8" t="n">
-        <v>1823.345543186168</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="T8" t="n">
-        <v>1598.98659691718</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="U8" t="n">
-        <v>1344.101260631174</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="V8" t="n">
-        <v>1007.121986527115</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="W8" t="n">
-        <v>644.5870563847161</v>
+        <v>1327.089953278928</v>
       </c>
       <c r="X8" t="n">
-        <v>644.5870563847161</v>
+        <v>1184.605294600905</v>
       </c>
       <c r="Y8" t="n">
-        <v>644.5870563847161</v>
+        <v>791.0634391767427</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>921.3370166032433</v>
+        <v>703.195773126389</v>
       </c>
       <c r="C9" t="n">
-        <v>759.6333438441981</v>
+        <v>541.4921003673437</v>
       </c>
       <c r="D9" t="n">
-        <v>620.7947068344101</v>
+        <v>402.6534633575558</v>
       </c>
       <c r="E9" t="n">
-        <v>473.7666968912813</v>
+        <v>255.625453414427</v>
       </c>
       <c r="F9" t="n">
-        <v>339.0728988411556</v>
+        <v>120.9316553643013</v>
       </c>
       <c r="G9" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H9" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I9" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J9" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K9" t="n">
-        <v>44.796090196649</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L9" t="n">
-        <v>410.6179353667646</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M9" t="n">
-        <v>895.6512888769911</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N9" t="n">
-        <v>1406.916935000113</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O9" t="n">
-        <v>1799.116885784264</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P9" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q9" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R9" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S9" t="n">
-        <v>2101.212805059961</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T9" t="n">
-        <v>2101.212805059961</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U9" t="n">
-        <v>1940.906265175487</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="V9" t="n">
-        <v>1712.510642623821</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="W9" t="n">
-        <v>1471.194773857131</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="X9" t="n">
-        <v>1273.277785734925</v>
+        <v>1055.136542258071</v>
       </c>
       <c r="Y9" t="n">
-        <v>1080.756459384504</v>
+        <v>862.6152159076499</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D10" t="n">
-        <v>490.7169697114248</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E10" t="n">
-        <v>338.7079554727436</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F10" t="n">
-        <v>186.2273004985207</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G10" t="n">
-        <v>186.2273004985207</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H10" t="n">
-        <v>186.2273004985207</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I10" t="n">
         <v>42.02425610119923</v>
@@ -4981,31 +4981,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q10" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="R10" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="S10" t="n">
-        <v>574.0835013471317</v>
+        <v>512.7698642964792</v>
       </c>
       <c r="T10" t="n">
-        <v>574.0835013471317</v>
+        <v>512.7698642964792</v>
       </c>
       <c r="U10" t="n">
-        <v>574.0835013471317</v>
+        <v>225.5796247855791</v>
       </c>
       <c r="V10" t="n">
-        <v>574.0835013471317</v>
+        <v>225.5796247855791</v>
       </c>
       <c r="W10" t="n">
-        <v>574.0835013471317</v>
+        <v>225.5796247855791</v>
       </c>
       <c r="X10" t="n">
-        <v>574.0835013471317</v>
+        <v>225.5796247855791</v>
       </c>
       <c r="Y10" t="n">
-        <v>574.0835013471317</v>
+        <v>225.5796247855791</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1477.739321925051</v>
+        <v>947.6024037857723</v>
       </c>
       <c r="C11" t="n">
-        <v>1210.041769002114</v>
+        <v>679.9048508628357</v>
       </c>
       <c r="D11" t="n">
-        <v>1210.041769002114</v>
+        <v>421.3170918343155</v>
       </c>
       <c r="E11" t="n">
-        <v>929.4922548524773</v>
+        <v>409.2276327576077</v>
       </c>
       <c r="F11" t="n">
-        <v>629.5772699069039</v>
+        <v>109.3126478120342</v>
       </c>
       <c r="G11" t="n">
-        <v>327.7262334500714</v>
+        <v>109.3126478120342</v>
       </c>
       <c r="H11" t="n">
         <v>109.3126478120342</v>
@@ -5042,22 +5042,22 @@
         <v>124.7686097247668</v>
       </c>
       <c r="K11" t="n">
-        <v>478.9594445851304</v>
+        <v>366.9965393351849</v>
       </c>
       <c r="L11" t="n">
-        <v>908.9030985218511</v>
+        <v>829.4346174247144</v>
       </c>
       <c r="M11" t="n">
-        <v>1416.98682125291</v>
+        <v>1337.518340155773</v>
       </c>
       <c r="N11" t="n">
         <v>1798.246459298193</v>
       </c>
       <c r="O11" t="n">
-        <v>2217.979040182097</v>
+        <v>2106.016134932152</v>
       </c>
       <c r="P11" t="n">
-        <v>2448.495877971526</v>
+        <v>2336.53297272158</v>
       </c>
       <c r="Q11" t="n">
         <v>2544.700349317259</v>
@@ -5066,25 +5066,25 @@
         <v>2568.859555751524</v>
       </c>
       <c r="S11" t="n">
-        <v>2496.248347881516</v>
+        <v>2496.248347881515</v>
       </c>
       <c r="T11" t="n">
         <v>2386.198905725809</v>
       </c>
       <c r="U11" t="n">
-        <v>2304.64624011297</v>
+        <v>2245.551114731637</v>
       </c>
       <c r="V11" t="n">
-        <v>2304.64624011297</v>
+        <v>2022.808046371835</v>
       </c>
       <c r="W11" t="n">
-        <v>2304.64624011297</v>
+        <v>1774.509321973691</v>
       </c>
       <c r="X11" t="n">
-        <v>2036.852305378719</v>
+        <v>1506.715387239441</v>
       </c>
       <c r="Y11" t="n">
-        <v>1757.546655698814</v>
+        <v>1227.409737559535</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>930.2860100971782</v>
+        <v>930.2860100971777</v>
       </c>
       <c r="C12" t="n">
-        <v>768.5823373381329</v>
+        <v>768.5823373381324</v>
       </c>
       <c r="D12" t="n">
-        <v>629.743700328345</v>
+        <v>629.7437003283445</v>
       </c>
       <c r="E12" t="n">
-        <v>482.7156903852162</v>
+        <v>482.7156903852157</v>
       </c>
       <c r="F12" t="n">
-        <v>348.0218923350906</v>
+        <v>348.0218923350901</v>
       </c>
       <c r="G12" t="n">
-        <v>219.3023513726297</v>
+        <v>219.3023513726292</v>
       </c>
       <c r="H12" t="n">
-        <v>119.4510191359439</v>
+        <v>119.4510191359434</v>
       </c>
       <c r="I12" t="n">
         <v>51.37719111503048</v>
@@ -5124,7 +5124,7 @@
         <v>343.3693719355363</v>
       </c>
       <c r="L12" t="n">
-        <v>711.0977523348504</v>
+        <v>711.0977523348506</v>
       </c>
       <c r="M12" t="n">
         <v>1198.355942532095</v>
@@ -5148,13 +5148,13 @@
         <v>2356.99845438182</v>
       </c>
       <c r="T12" t="n">
-        <v>2168.349461662279</v>
+        <v>2168.349461662278</v>
       </c>
       <c r="U12" t="n">
-        <v>1949.855258669422</v>
+        <v>1949.855258669421</v>
       </c>
       <c r="V12" t="n">
-        <v>1721.459636117756</v>
+        <v>1721.459636117755</v>
       </c>
       <c r="W12" t="n">
         <v>1480.143767351065</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>351.0965567399343</v>
+        <v>351.0965567399346</v>
       </c>
       <c r="C13" t="n">
-        <v>295.7167929458708</v>
+        <v>295.7167929458711</v>
       </c>
       <c r="D13" t="n">
-        <v>256.8811055178898</v>
+        <v>256.8811055178901</v>
       </c>
       <c r="E13" t="n">
-        <v>219.1082970234648</v>
+        <v>219.1082970234652</v>
       </c>
       <c r="F13" t="n">
-        <v>180.8638477934982</v>
+        <v>180.8638477934985</v>
       </c>
       <c r="G13" t="n">
         <v>126.1878158422029</v>
       </c>
       <c r="H13" t="n">
-        <v>81.11815542021512</v>
+        <v>81.11815542021515</v>
       </c>
       <c r="I13" t="n">
         <v>51.37719111503048</v>
@@ -5200,16 +5200,16 @@
         <v>104.9984526824718</v>
       </c>
       <c r="K13" t="n">
-        <v>251.4208145253112</v>
+        <v>251.4208145253111</v>
       </c>
       <c r="L13" t="n">
-        <v>465.0852488425185</v>
+        <v>465.0852488425183</v>
       </c>
       <c r="M13" t="n">
-        <v>696.1956039407529</v>
+        <v>696.1956039407528</v>
       </c>
       <c r="N13" t="n">
-        <v>927.7073564584991</v>
+        <v>927.7073564584989</v>
       </c>
       <c r="O13" t="n">
         <v>1139.174418380393</v>
@@ -5221,28 +5221,28 @@
         <v>1389.805023206105</v>
       </c>
       <c r="R13" t="n">
-        <v>1354.857166586691</v>
+        <v>1354.857166586692</v>
       </c>
       <c r="S13" t="n">
-        <v>1255.514504875169</v>
+        <v>1255.51450487517</v>
       </c>
       <c r="T13" t="n">
-        <v>1136.603849618751</v>
+        <v>1136.603849618752</v>
       </c>
       <c r="U13" t="n">
-        <v>963.6502255395583</v>
+        <v>963.6502255395587</v>
       </c>
       <c r="V13" t="n">
-        <v>817.1511268422371</v>
+        <v>817.1511268422375</v>
       </c>
       <c r="W13" t="n">
-        <v>645.2309311038924</v>
+        <v>645.2309311038929</v>
       </c>
       <c r="X13" t="n">
-        <v>528.2146727435245</v>
+        <v>528.2146727435248</v>
       </c>
       <c r="Y13" t="n">
-        <v>420.4157196800578</v>
+        <v>420.4157196800581</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1550.718178579422</v>
+        <v>1410.694071333631</v>
       </c>
       <c r="C14" t="n">
-        <v>1283.020625656486</v>
+        <v>1410.694071333631</v>
       </c>
       <c r="D14" t="n">
-        <v>1024.432866627966</v>
+        <v>1152.106312305111</v>
       </c>
       <c r="E14" t="n">
-        <v>743.8833524783288</v>
+        <v>871.5567981554739</v>
       </c>
       <c r="F14" t="n">
-        <v>443.9683675327553</v>
+        <v>571.6418132099004</v>
       </c>
       <c r="G14" t="n">
-        <v>142.1173310759228</v>
+        <v>269.7907767530677</v>
       </c>
       <c r="H14" t="n">
         <v>51.37719111503048</v>
@@ -5276,25 +5276,25 @@
         <v>51.37719111503048</v>
       </c>
       <c r="J14" t="n">
-        <v>204.2370908219035</v>
+        <v>236.7315149747123</v>
       </c>
       <c r="K14" t="n">
-        <v>446.4650204323216</v>
+        <v>590.9223498350759</v>
       </c>
       <c r="L14" t="n">
-        <v>796.9401932719055</v>
+        <v>941.3975226746599</v>
       </c>
       <c r="M14" t="n">
-        <v>1193.061010753018</v>
+        <v>1337.518340155773</v>
       </c>
       <c r="N14" t="n">
-        <v>1686.283554048247</v>
+        <v>1830.740883451002</v>
       </c>
       <c r="O14" t="n">
-        <v>1994.053229682206</v>
+        <v>2138.510559084961</v>
       </c>
       <c r="P14" t="n">
-        <v>2336.53297272158</v>
+        <v>2369.027396874389</v>
       </c>
       <c r="Q14" t="n">
         <v>2544.700349317259</v>
@@ -5303,25 +5303,25 @@
         <v>2568.859555751524</v>
       </c>
       <c r="S14" t="n">
-        <v>2568.859555751524</v>
+        <v>2496.248347881515</v>
       </c>
       <c r="T14" t="n">
-        <v>2568.859555751524</v>
+        <v>2386.198905725809</v>
       </c>
       <c r="U14" t="n">
-        <v>2568.859555751524</v>
+        <v>2245.551114731637</v>
       </c>
       <c r="V14" t="n">
-        <v>2346.116487391721</v>
+        <v>2022.808046371835</v>
       </c>
       <c r="W14" t="n">
-        <v>2097.817762993579</v>
+        <v>1774.509321973692</v>
       </c>
       <c r="X14" t="n">
-        <v>1830.023828259328</v>
+        <v>1774.509321973692</v>
       </c>
       <c r="Y14" t="n">
-        <v>1550.718178579422</v>
+        <v>1690.501405107394</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>930.2860100971782</v>
+        <v>930.2860100971777</v>
       </c>
       <c r="C15" t="n">
-        <v>768.5823373381329</v>
+        <v>768.5823373381324</v>
       </c>
       <c r="D15" t="n">
-        <v>629.743700328345</v>
+        <v>629.7437003283445</v>
       </c>
       <c r="E15" t="n">
-        <v>482.7156903852162</v>
+        <v>482.7156903852157</v>
       </c>
       <c r="F15" t="n">
-        <v>348.0218923350906</v>
+        <v>348.0218923350901</v>
       </c>
       <c r="G15" t="n">
-        <v>219.3023513726286</v>
+        <v>219.3023513726292</v>
       </c>
       <c r="H15" t="n">
-        <v>119.4510191359428</v>
+        <v>119.4510191359434</v>
       </c>
       <c r="I15" t="n">
         <v>51.37719111503048</v>
       </c>
       <c r="J15" t="n">
-        <v>112.4609240610683</v>
+        <v>112.460924061068</v>
       </c>
       <c r="K15" t="n">
-        <v>343.3693719355365</v>
+        <v>343.369371935536</v>
       </c>
       <c r="L15" t="n">
-        <v>711.0977523348508</v>
+        <v>711.0977523348504</v>
       </c>
       <c r="M15" t="n">
         <v>1198.355942532095</v>
@@ -5385,13 +5385,13 @@
         <v>2356.99845438182</v>
       </c>
       <c r="T15" t="n">
-        <v>2168.349461662279</v>
+        <v>2168.349461662278</v>
       </c>
       <c r="U15" t="n">
-        <v>1949.855258669422</v>
+        <v>1949.855258669421</v>
       </c>
       <c r="V15" t="n">
-        <v>1721.459636117756</v>
+        <v>1721.459636117755</v>
       </c>
       <c r="W15" t="n">
         <v>1480.143767351065</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>351.0965567399345</v>
+        <v>351.0965567399346</v>
       </c>
       <c r="C16" t="n">
-        <v>295.716792945871</v>
+        <v>295.7167929458711</v>
       </c>
       <c r="D16" t="n">
-        <v>256.88110551789</v>
+        <v>256.8811055178901</v>
       </c>
       <c r="E16" t="n">
         <v>219.1082970234651</v>
       </c>
       <c r="F16" t="n">
-        <v>180.8638477934984</v>
+        <v>180.8638477934985</v>
       </c>
       <c r="G16" t="n">
-        <v>126.1878158422028</v>
+        <v>126.1878158422029</v>
       </c>
       <c r="H16" t="n">
         <v>81.11815542021513</v>
@@ -5440,10 +5440,10 @@
         <v>251.4208145253111</v>
       </c>
       <c r="L16" t="n">
-        <v>465.0852488425182</v>
+        <v>465.0852488425184</v>
       </c>
       <c r="M16" t="n">
-        <v>696.1956039407527</v>
+        <v>696.1956039407528</v>
       </c>
       <c r="N16" t="n">
         <v>927.7073564584989</v>
@@ -5467,19 +5467,19 @@
         <v>1136.603849618752</v>
       </c>
       <c r="U16" t="n">
-        <v>963.6502255395586</v>
+        <v>963.6502255395588</v>
       </c>
       <c r="V16" t="n">
-        <v>817.1511268422374</v>
+        <v>817.1511268422377</v>
       </c>
       <c r="W16" t="n">
-        <v>645.2309311038928</v>
+        <v>645.230931103893</v>
       </c>
       <c r="X16" t="n">
-        <v>528.2146727435247</v>
+        <v>528.2146727435249</v>
       </c>
       <c r="Y16" t="n">
-        <v>420.4157196800581</v>
+        <v>420.4157196800583</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1368.255564941933</v>
+        <v>1368.255564941932</v>
       </c>
       <c r="C17" t="n">
-        <v>1153.139657163516</v>
+        <v>1153.139657163515</v>
       </c>
       <c r="D17" t="n">
-        <v>947.1335432795158</v>
+        <v>947.1335432795147</v>
       </c>
       <c r="E17" t="n">
-        <v>719.1656742743985</v>
+        <v>719.1656742743977</v>
       </c>
       <c r="F17" t="n">
-        <v>471.8323344733448</v>
+        <v>471.8323344733442</v>
       </c>
       <c r="G17" t="n">
-        <v>222.562943161032</v>
+        <v>222.5629431610316</v>
       </c>
       <c r="H17" t="n">
-        <v>56.73100266751446</v>
+        <v>56.73100266751429</v>
       </c>
       <c r="I17" t="n">
         <v>51.37719111503048</v>
       </c>
       <c r="J17" t="n">
-        <v>288.2667853808562</v>
+        <v>124.7686097247668</v>
       </c>
       <c r="K17" t="n">
-        <v>530.4947149912742</v>
+        <v>366.9965393351849</v>
       </c>
       <c r="L17" t="n">
-        <v>1044.468063486948</v>
+        <v>717.4717121747688</v>
       </c>
       <c r="M17" t="n">
-        <v>1440.58888096806</v>
+        <v>1226.112581624941</v>
       </c>
       <c r="N17" t="n">
-        <v>1821.848519013344</v>
+        <v>1607.372219670224</v>
       </c>
       <c r="O17" t="n">
-        <v>2129.618194647303</v>
+        <v>1915.141895304183</v>
       </c>
       <c r="P17" t="n">
-        <v>2396.960607565382</v>
+        <v>2309.156908749701</v>
       </c>
       <c r="Q17" t="n">
-        <v>2493.165078911115</v>
+        <v>2568.859555751524</v>
       </c>
       <c r="R17" t="n">
         <v>2568.859555751524</v>
       </c>
       <c r="S17" t="n">
-        <v>2548.829993026037</v>
+        <v>2548.829993026035</v>
       </c>
       <c r="T17" t="n">
-        <v>2491.362196014851</v>
+        <v>2491.362196014848</v>
       </c>
       <c r="U17" t="n">
-        <v>2403.296050165199</v>
+        <v>2403.296050165196</v>
       </c>
       <c r="V17" t="n">
-        <v>2233.134626949916</v>
+        <v>2233.134626949914</v>
       </c>
       <c r="W17" t="n">
-        <v>2037.417547696293</v>
+        <v>2037.417547696291</v>
       </c>
       <c r="X17" t="n">
-        <v>1822.205258106562</v>
+        <v>1822.205258106561</v>
       </c>
       <c r="Y17" t="n">
-        <v>1595.481253571176</v>
+        <v>1595.481253571175</v>
       </c>
     </row>
     <row r="18">
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>930.2860100971782</v>
+        <v>930.2860100971777</v>
       </c>
       <c r="C18" t="n">
-        <v>768.5823373381329</v>
+        <v>768.5823373381324</v>
       </c>
       <c r="D18" t="n">
-        <v>629.743700328345</v>
+        <v>629.7437003283445</v>
       </c>
       <c r="E18" t="n">
-        <v>482.7156903852162</v>
+        <v>482.7156903852157</v>
       </c>
       <c r="F18" t="n">
-        <v>348.0218923350906</v>
+        <v>348.0218923350901</v>
       </c>
       <c r="G18" t="n">
         <v>219.3023513726286</v>
@@ -5592,13 +5592,13 @@
         <v>51.37719111503048</v>
       </c>
       <c r="J18" t="n">
-        <v>112.4609240610681</v>
+        <v>112.460924061068</v>
       </c>
       <c r="K18" t="n">
-        <v>343.3693719355365</v>
+        <v>343.3693719355363</v>
       </c>
       <c r="L18" t="n">
-        <v>711.0977523348508</v>
+        <v>711.0977523348506</v>
       </c>
       <c r="M18" t="n">
         <v>1198.355942532095</v>
@@ -5622,13 +5622,13 @@
         <v>2356.99845438182</v>
       </c>
       <c r="T18" t="n">
-        <v>2168.349461662279</v>
+        <v>2168.349461662278</v>
       </c>
       <c r="U18" t="n">
-        <v>1949.855258669422</v>
+        <v>1949.855258669421</v>
       </c>
       <c r="V18" t="n">
-        <v>1721.459636117756</v>
+        <v>1721.459636117755</v>
       </c>
       <c r="W18" t="n">
         <v>1480.143767351065</v>
@@ -5647,7 +5647,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>54.17530976457421</v>
+        <v>54.17530976457403</v>
       </c>
       <c r="C19" t="n">
         <v>51.37719111503048</v>
@@ -5659,64 +5659,64 @@
         <v>51.37719111503048</v>
       </c>
       <c r="F19" t="n">
-        <v>53.47157792180629</v>
+        <v>65.42907683088414</v>
       </c>
       <c r="G19" t="n">
-        <v>51.37719111503048</v>
+        <v>63.33469002410851</v>
       </c>
       <c r="H19" t="n">
-        <v>51.37719111503048</v>
+        <v>70.69718625066234</v>
       </c>
       <c r="I19" t="n">
-        <v>73.76334240566283</v>
+        <v>81.77962293590524</v>
       </c>
       <c r="J19" t="n">
-        <v>73.76334240566283</v>
+        <v>81.77962293590524</v>
       </c>
       <c r="K19" t="n">
-        <v>108.2227989985567</v>
+        <v>116.2390795287991</v>
       </c>
       <c r="L19" t="n">
-        <v>209.9243280658184</v>
+        <v>217.9406085960608</v>
       </c>
       <c r="M19" t="n">
-        <v>329.0717779141073</v>
+        <v>337.0880584443497</v>
       </c>
       <c r="N19" t="n">
-        <v>448.6206251819079</v>
+        <v>456.6369057121503</v>
       </c>
       <c r="O19" t="n">
-        <v>556.1410623841014</v>
+        <v>556.1410623840997</v>
       </c>
       <c r="P19" t="n">
-        <v>619.9998823217168</v>
+        <v>619.9998823217151</v>
       </c>
       <c r="Q19" t="n">
-        <v>619.9998823217168</v>
+        <v>619.9998823217151</v>
       </c>
       <c r="R19" t="n">
-        <v>637.2827584551734</v>
+        <v>637.2827584551719</v>
       </c>
       <c r="S19" t="n">
-        <v>590.5217418881712</v>
+        <v>590.5217418881698</v>
       </c>
       <c r="T19" t="n">
-        <v>524.1927317762728</v>
+        <v>524.1927317762717</v>
       </c>
       <c r="U19" t="n">
-        <v>403.8207528415995</v>
+        <v>403.8207528415985</v>
       </c>
       <c r="V19" t="n">
-        <v>309.9032992887981</v>
+        <v>309.9032992887973</v>
       </c>
       <c r="W19" t="n">
-        <v>190.5647486949732</v>
+        <v>190.5647486949725</v>
       </c>
       <c r="X19" t="n">
-        <v>126.130135479125</v>
+        <v>126.1301354791245</v>
       </c>
       <c r="Y19" t="n">
-        <v>70.91282756017804</v>
+        <v>70.9128275601777</v>
       </c>
     </row>
     <row r="20">
@@ -5726,52 +5726,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1368.255564941933</v>
+        <v>1368.255564941931</v>
       </c>
       <c r="C20" t="n">
-        <v>1153.139657163516</v>
+        <v>1153.139657163515</v>
       </c>
       <c r="D20" t="n">
-        <v>947.1335432795154</v>
+        <v>947.1335432795147</v>
       </c>
       <c r="E20" t="n">
-        <v>719.1656742743983</v>
+        <v>719.1656742743977</v>
       </c>
       <c r="F20" t="n">
-        <v>471.8323344733446</v>
+        <v>471.8323344733441</v>
       </c>
       <c r="G20" t="n">
-        <v>222.5629431610319</v>
+        <v>222.5629431610315</v>
       </c>
       <c r="H20" t="n">
-        <v>56.73100266751447</v>
+        <v>56.73100266751432</v>
       </c>
       <c r="I20" t="n">
         <v>51.37719111503048</v>
       </c>
       <c r="J20" t="n">
-        <v>288.2667853808562</v>
+        <v>237.2886616938254</v>
       </c>
       <c r="K20" t="n">
-        <v>530.4947149912742</v>
+        <v>479.5165913042435</v>
       </c>
       <c r="L20" t="n">
-        <v>880.9698878308582</v>
+        <v>829.9917641438275</v>
       </c>
       <c r="M20" t="n">
-        <v>1277.090705311971</v>
+        <v>1226.11258162494</v>
       </c>
       <c r="N20" t="n">
-        <v>1695.175918485905</v>
+        <v>1770.870395326313</v>
       </c>
       <c r="O20" t="n">
-        <v>2166.443769775954</v>
+        <v>2078.640070960272</v>
       </c>
       <c r="P20" t="n">
-        <v>2396.960607565382</v>
+        <v>2472.65508440579</v>
       </c>
       <c r="Q20" t="n">
-        <v>2493.165078911115</v>
+        <v>2568.859555751524</v>
       </c>
       <c r="R20" t="n">
         <v>2568.859555751524</v>
@@ -5783,19 +5783,19 @@
         <v>2491.362196014849</v>
       </c>
       <c r="U20" t="n">
-        <v>2403.296050165198</v>
+        <v>2403.296050165197</v>
       </c>
       <c r="V20" t="n">
-        <v>2233.134626949915</v>
+        <v>2233.134626949914</v>
       </c>
       <c r="W20" t="n">
-        <v>2037.417547696292</v>
+        <v>2037.417547696291</v>
       </c>
       <c r="X20" t="n">
-        <v>1822.205258106562</v>
+        <v>1822.205258106561</v>
       </c>
       <c r="Y20" t="n">
-        <v>1595.481253571176</v>
+        <v>1595.481253571174</v>
       </c>
     </row>
     <row r="21">
@@ -5805,31 +5805,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>930.2860100971772</v>
+        <v>930.2860100971777</v>
       </c>
       <c r="C21" t="n">
-        <v>768.5823373381319</v>
+        <v>768.5823373381324</v>
       </c>
       <c r="D21" t="n">
-        <v>629.7437003283439</v>
+        <v>629.7437003283445</v>
       </c>
       <c r="E21" t="n">
-        <v>482.7156903852151</v>
+        <v>482.7156903852157</v>
       </c>
       <c r="F21" t="n">
-        <v>348.0218923350895</v>
+        <v>348.0218923350901</v>
       </c>
       <c r="G21" t="n">
-        <v>219.3023513726286</v>
+        <v>219.3023513726292</v>
       </c>
       <c r="H21" t="n">
-        <v>119.4510191359428</v>
+        <v>119.4510191359434</v>
       </c>
       <c r="I21" t="n">
         <v>51.37719111503048</v>
       </c>
       <c r="J21" t="n">
-        <v>112.4609240610681</v>
+        <v>112.460924061068</v>
       </c>
       <c r="K21" t="n">
         <v>343.3693719355363</v>
@@ -5853,7 +5853,7 @@
         <v>2568.859555751524</v>
       </c>
       <c r="R21" t="n">
-        <v>2509.631531608693</v>
+        <v>2509.631531608694</v>
       </c>
       <c r="S21" t="n">
         <v>2356.99845438182</v>
@@ -5871,10 +5871,10 @@
         <v>1480.143767351065</v>
       </c>
       <c r="X21" t="n">
-        <v>1282.226779228859</v>
+        <v>1282.22677922886</v>
       </c>
       <c r="Y21" t="n">
-        <v>1089.705452878438</v>
+        <v>1089.705452878439</v>
       </c>
     </row>
     <row r="22">
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>56.26969657135001</v>
+        <v>54.17530976457406</v>
       </c>
       <c r="C22" t="n">
-        <v>53.47157792180629</v>
+        <v>51.37719111503048</v>
       </c>
       <c r="D22" t="n">
-        <v>53.47157792180629</v>
+        <v>51.37719111503048</v>
       </c>
       <c r="E22" t="n">
-        <v>53.47157792180629</v>
+        <v>51.37719111503048</v>
       </c>
       <c r="F22" t="n">
-        <v>53.47157792180629</v>
+        <v>53.47157792180614</v>
       </c>
       <c r="G22" t="n">
         <v>51.37719111503048</v>
@@ -5911,7 +5911,7 @@
         <v>51.37719111503048</v>
       </c>
       <c r="K22" t="n">
-        <v>85.83664770792434</v>
+        <v>85.83664770792433</v>
       </c>
       <c r="L22" t="n">
         <v>187.538176775186</v>
@@ -5920,40 +5920,40 @@
         <v>306.6856266234749</v>
       </c>
       <c r="N22" t="n">
-        <v>476.0141686523846</v>
+        <v>426.2344738912756</v>
       </c>
       <c r="O22" t="n">
-        <v>575.5183253243339</v>
+        <v>525.7386305632249</v>
       </c>
       <c r="P22" t="n">
-        <v>639.3771452619493</v>
+        <v>589.5974505008403</v>
       </c>
       <c r="Q22" t="n">
-        <v>639.3771452619493</v>
+        <v>637.2827584551721</v>
       </c>
       <c r="R22" t="n">
-        <v>639.3771452619493</v>
+        <v>637.2827584551721</v>
       </c>
       <c r="S22" t="n">
-        <v>592.6161286949471</v>
+        <v>590.52174188817</v>
       </c>
       <c r="T22" t="n">
-        <v>526.2871185830487</v>
+        <v>524.1927317762719</v>
       </c>
       <c r="U22" t="n">
-        <v>405.9151396483754</v>
+        <v>403.8207528415987</v>
       </c>
       <c r="V22" t="n">
-        <v>311.997686095574</v>
+        <v>309.9032992887974</v>
       </c>
       <c r="W22" t="n">
-        <v>192.659135501749</v>
+        <v>190.5647486949726</v>
       </c>
       <c r="X22" t="n">
-        <v>128.2245222859008</v>
+        <v>126.1301354791245</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.00721436695386</v>
+        <v>70.91282756017776</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1368.255564941933</v>
+        <v>1368.255564941931</v>
       </c>
       <c r="C23" t="n">
-        <v>1153.139657163516</v>
+        <v>1153.139657163515</v>
       </c>
       <c r="D23" t="n">
-        <v>947.1335432795156</v>
+        <v>947.1335432795149</v>
       </c>
       <c r="E23" t="n">
-        <v>719.1656742743985</v>
+        <v>719.1656742743979</v>
       </c>
       <c r="F23" t="n">
-        <v>471.8323344733448</v>
+        <v>471.8323344733444</v>
       </c>
       <c r="G23" t="n">
-        <v>222.562943161032</v>
+        <v>222.5629431610319</v>
       </c>
       <c r="H23" t="n">
-        <v>56.73100266751446</v>
+        <v>56.73100266751425</v>
       </c>
       <c r="I23" t="n">
-        <v>51.37719111503048</v>
+        <v>51.37719111503043</v>
       </c>
       <c r="J23" t="n">
-        <v>288.2667853808562</v>
+        <v>237.2886616938235</v>
       </c>
       <c r="K23" t="n">
-        <v>693.9928906473635</v>
+        <v>479.5165913042416</v>
       </c>
       <c r="L23" t="n">
-        <v>1044.468063486947</v>
+        <v>993.4899397999151</v>
       </c>
       <c r="M23" t="n">
-        <v>1440.58888096806</v>
+        <v>1389.610757281028</v>
       </c>
       <c r="N23" t="n">
-        <v>1821.848519013344</v>
+        <v>1770.870395326312</v>
       </c>
       <c r="O23" t="n">
-        <v>2129.618194647303</v>
+        <v>2242.13824661636</v>
       </c>
       <c r="P23" t="n">
-        <v>2396.960607565383</v>
+        <v>2472.655084405788</v>
       </c>
       <c r="Q23" t="n">
-        <v>2493.165078911117</v>
+        <v>2568.859555751522</v>
       </c>
       <c r="R23" t="n">
-        <v>2568.859555751525</v>
+        <v>2568.859555751522</v>
       </c>
       <c r="S23" t="n">
-        <v>2548.829993026037</v>
+        <v>2548.829993026034</v>
       </c>
       <c r="T23" t="n">
-        <v>2491.36219601485</v>
+        <v>2491.362196014847</v>
       </c>
       <c r="U23" t="n">
-        <v>2403.296050165198</v>
+        <v>2403.296050165196</v>
       </c>
       <c r="V23" t="n">
-        <v>2233.134626949915</v>
+        <v>2233.134626949914</v>
       </c>
       <c r="W23" t="n">
-        <v>2037.417547696293</v>
+        <v>2037.417547696291</v>
       </c>
       <c r="X23" t="n">
-        <v>1822.205258106562</v>
+        <v>1822.20525810656</v>
       </c>
       <c r="Y23" t="n">
-        <v>1595.481253571176</v>
+        <v>1595.481253571174</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>930.2860100971782</v>
+        <v>930.2860100971759</v>
       </c>
       <c r="C24" t="n">
-        <v>768.5823373381329</v>
+        <v>768.5823373381306</v>
       </c>
       <c r="D24" t="n">
-        <v>629.743700328345</v>
+        <v>629.7437003283427</v>
       </c>
       <c r="E24" t="n">
-        <v>482.7156903852162</v>
+        <v>482.7156903852139</v>
       </c>
       <c r="F24" t="n">
-        <v>348.0218923350906</v>
+        <v>348.0218923350883</v>
       </c>
       <c r="G24" t="n">
-        <v>219.3023513726286</v>
+        <v>219.3023513726274</v>
       </c>
       <c r="H24" t="n">
-        <v>119.4510191359428</v>
+        <v>119.4510191359416</v>
       </c>
       <c r="I24" t="n">
-        <v>51.37719111503048</v>
+        <v>51.37719111503043</v>
       </c>
       <c r="J24" t="n">
-        <v>112.4609240610683</v>
+        <v>112.460924061068</v>
       </c>
       <c r="K24" t="n">
-        <v>343.3693719355365</v>
+        <v>343.3693719355363</v>
       </c>
       <c r="L24" t="n">
-        <v>711.0977523348508</v>
+        <v>711.0977523348506</v>
       </c>
       <c r="M24" t="n">
         <v>1198.355942532095</v>
       </c>
       <c r="N24" t="n">
-        <v>1711.905310149132</v>
+        <v>1711.90531014913</v>
       </c>
       <c r="O24" t="n">
-        <v>2106.194419939006</v>
+        <v>2106.194419939004</v>
       </c>
       <c r="P24" t="n">
-        <v>2409.967073500308</v>
+        <v>2409.967073500306</v>
       </c>
       <c r="Q24" t="n">
-        <v>2568.859555751524</v>
+        <v>2568.859555751522</v>
       </c>
       <c r="R24" t="n">
-        <v>2509.631531608694</v>
+        <v>2509.631531608692</v>
       </c>
       <c r="S24" t="n">
-        <v>2356.99845438182</v>
+        <v>2356.998454381818</v>
       </c>
       <c r="T24" t="n">
-        <v>2168.349461662279</v>
+        <v>2168.349461662277</v>
       </c>
       <c r="U24" t="n">
-        <v>1949.855258669422</v>
+        <v>1949.855258669419</v>
       </c>
       <c r="V24" t="n">
-        <v>1721.459636117756</v>
+        <v>1721.459636117753</v>
       </c>
       <c r="W24" t="n">
-        <v>1480.143767351065</v>
+        <v>1480.143767351063</v>
       </c>
       <c r="X24" t="n">
-        <v>1282.22677922886</v>
+        <v>1282.226779228858</v>
       </c>
       <c r="Y24" t="n">
-        <v>1089.705452878439</v>
+        <v>1089.705452878437</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>56.26969657135001</v>
+        <v>54.17530976457399</v>
       </c>
       <c r="C25" t="n">
-        <v>53.47157792180629</v>
+        <v>51.37719111503043</v>
       </c>
       <c r="D25" t="n">
-        <v>53.47157792180629</v>
+        <v>51.37719111503043</v>
       </c>
       <c r="E25" t="n">
-        <v>53.47157792180629</v>
+        <v>53.47157792180607</v>
       </c>
       <c r="F25" t="n">
-        <v>53.47157792180629</v>
+        <v>53.47157792180607</v>
       </c>
       <c r="G25" t="n">
-        <v>51.37719111503048</v>
+        <v>51.37719111503043</v>
       </c>
       <c r="H25" t="n">
-        <v>51.37719111503048</v>
+        <v>58.73968734158426</v>
       </c>
       <c r="I25" t="n">
-        <v>51.37719111503048</v>
+        <v>58.73968734158426</v>
       </c>
       <c r="J25" t="n">
-        <v>51.37719111503048</v>
+        <v>58.73968734158426</v>
       </c>
       <c r="K25" t="n">
-        <v>85.83664770792434</v>
+        <v>93.19914393447812</v>
       </c>
       <c r="L25" t="n">
-        <v>187.538176775186</v>
+        <v>194.9006730017398</v>
       </c>
       <c r="M25" t="n">
-        <v>306.6856266234749</v>
+        <v>314.0481228500287</v>
       </c>
       <c r="N25" t="n">
-        <v>426.2344738912756</v>
+        <v>433.5969701178294</v>
       </c>
       <c r="O25" t="n">
-        <v>525.7386305632249</v>
+        <v>533.1011267897787</v>
       </c>
       <c r="P25" t="n">
-        <v>589.5974505008403</v>
+        <v>619.9998823217151</v>
       </c>
       <c r="Q25" t="n">
-        <v>622.0942691284927</v>
+        <v>619.9998823217151</v>
       </c>
       <c r="R25" t="n">
-        <v>639.3771452619493</v>
+        <v>637.2827584551719</v>
       </c>
       <c r="S25" t="n">
-        <v>592.6161286949471</v>
+        <v>590.5217418881698</v>
       </c>
       <c r="T25" t="n">
-        <v>526.2871185830487</v>
+        <v>524.1927317762717</v>
       </c>
       <c r="U25" t="n">
-        <v>405.9151396483754</v>
+        <v>403.8207528415985</v>
       </c>
       <c r="V25" t="n">
-        <v>311.997686095574</v>
+        <v>309.9032992887973</v>
       </c>
       <c r="W25" t="n">
-        <v>192.659135501749</v>
+        <v>190.5647486949725</v>
       </c>
       <c r="X25" t="n">
-        <v>128.2245222859008</v>
+        <v>126.1301354791244</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.00721436695386</v>
+        <v>70.91282756017766</v>
       </c>
     </row>
     <row r="26">
@@ -6209,37 +6209,37 @@
         <v>1157.446630963406</v>
       </c>
       <c r="E26" t="n">
-        <v>889.8428338947866</v>
+        <v>889.8428338947865</v>
       </c>
       <c r="F26" t="n">
-        <v>602.8735660302306</v>
+        <v>602.8735660302304</v>
       </c>
       <c r="G26" t="n">
-        <v>313.9682466544155</v>
+        <v>313.968246654415</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5003780973955</v>
+        <v>108.5003780973952</v>
       </c>
       <c r="I26" t="n">
-        <v>63.51063848140915</v>
+        <v>63.5106384814088</v>
       </c>
       <c r="J26" t="n">
-        <v>261.5530596521961</v>
+        <v>261.5530596521959</v>
       </c>
       <c r="K26" t="n">
-        <v>628.4319918236648</v>
+        <v>628.4319918236647</v>
       </c>
       <c r="L26" t="n">
         <v>1103.558167224299</v>
       </c>
       <c r="M26" t="n">
-        <v>1624.329987266463</v>
+        <v>1624.329987266462</v>
       </c>
       <c r="N26" t="n">
         <v>2130.240627872797</v>
       </c>
       <c r="O26" t="n">
-        <v>2562.661306067807</v>
+        <v>2562.661306067806</v>
       </c>
       <c r="P26" t="n">
         <v>2917.829146418286</v>
@@ -6248,7 +6248,7 @@
         <v>3138.68462032507</v>
       </c>
       <c r="R26" t="n">
-        <v>3175.531924070439</v>
+        <v>3175.53192407044</v>
       </c>
       <c r="S26" t="n">
         <v>3115.866433281449</v>
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>942.4194574635554</v>
+        <v>942.4194574635561</v>
       </c>
       <c r="C27" t="n">
-        <v>780.7157847045102</v>
+        <v>780.715784704511</v>
       </c>
       <c r="D27" t="n">
-        <v>641.8771476947222</v>
+        <v>641.8771476947231</v>
       </c>
       <c r="E27" t="n">
-        <v>494.8491377515935</v>
+        <v>494.8491377515943</v>
       </c>
       <c r="F27" t="n">
-        <v>360.1553397014678</v>
+        <v>360.1553397014686</v>
       </c>
       <c r="G27" t="n">
         <v>231.4357987390069</v>
@@ -6300,7 +6300,7 @@
         <v>131.5844665023211</v>
       </c>
       <c r="I27" t="n">
-        <v>63.51063848140879</v>
+        <v>63.5106384814088</v>
       </c>
       <c r="J27" t="n">
         <v>124.5943714274464</v>
@@ -6315,40 +6315,40 @@
         <v>1210.489389898473</v>
       </c>
       <c r="N27" t="n">
-        <v>1724.038757515509</v>
+        <v>1724.03875751551</v>
       </c>
       <c r="O27" t="n">
-        <v>2118.327867305384</v>
+        <v>2118.327867305385</v>
       </c>
       <c r="P27" t="n">
-        <v>2422.100520866686</v>
+        <v>2422.100520866687</v>
       </c>
       <c r="Q27" t="n">
-        <v>2580.993003117901</v>
+        <v>2580.993003117902</v>
       </c>
       <c r="R27" t="n">
-        <v>2521.764978975072</v>
+        <v>2521.764978975073</v>
       </c>
       <c r="S27" t="n">
-        <v>2369.131901748198</v>
+        <v>2369.131901748199</v>
       </c>
       <c r="T27" t="n">
-        <v>2180.482909028656</v>
+        <v>2180.482909028657</v>
       </c>
       <c r="U27" t="n">
-        <v>1961.988706035799</v>
+        <v>1961.9887060358</v>
       </c>
       <c r="V27" t="n">
-        <v>1733.593083484133</v>
+        <v>1733.593083484134</v>
       </c>
       <c r="W27" t="n">
-        <v>1492.277214717443</v>
+        <v>1492.277214717444</v>
       </c>
       <c r="X27" t="n">
-        <v>1294.360226595237</v>
+        <v>1294.360226595238</v>
       </c>
       <c r="Y27" t="n">
-        <v>1101.838900244816</v>
+        <v>1101.838900244817</v>
       </c>
     </row>
     <row r="28">
@@ -6361,7 +6361,7 @@
         <v>272.609984539191</v>
       </c>
       <c r="C28" t="n">
-        <v>230.175937826145</v>
+        <v>230.1759378261449</v>
       </c>
       <c r="D28" t="n">
         <v>204.2859674791813</v>
@@ -6373,34 +6373,34 @@
         <v>154.1601439168245</v>
       </c>
       <c r="G28" t="n">
-        <v>112.4298290465464</v>
+        <v>112.4298290465463</v>
       </c>
       <c r="H28" t="n">
         <v>80.30588570557603</v>
       </c>
       <c r="I28" t="n">
-        <v>63.51063848140879</v>
+        <v>63.5106384814088</v>
       </c>
       <c r="J28" t="n">
-        <v>129.8199973599552</v>
+        <v>63.5106384814088</v>
       </c>
       <c r="K28" t="n">
-        <v>288.9304565138998</v>
+        <v>222.6210976353533</v>
       </c>
       <c r="L28" t="n">
-        <v>515.2829881422122</v>
+        <v>448.9736292636657</v>
       </c>
       <c r="M28" t="n">
-        <v>634.4304379905011</v>
+        <v>692.7720816730052</v>
       </c>
       <c r="N28" t="n">
-        <v>878.6302878193525</v>
+        <v>906.7930181055897</v>
       </c>
       <c r="O28" t="n">
-        <v>978.1344444913018</v>
+        <v>1130.94817733859</v>
       </c>
       <c r="P28" t="n">
-        <v>1107.31002032695</v>
+        <v>1194.806997276205</v>
       </c>
       <c r="Q28" t="n">
         <v>1194.806997276205</v>
@@ -6412,10 +6412,10 @@
         <v>1086.407913107304</v>
       </c>
       <c r="T28" t="n">
-        <v>980.4429749319039</v>
+        <v>980.4429749319038</v>
       </c>
       <c r="U28" t="n">
-        <v>820.4350679337282</v>
+        <v>820.4350679337281</v>
       </c>
       <c r="V28" t="n">
         <v>686.8816863174244</v>
@@ -6446,19 +6446,19 @@
         <v>1157.446630963406</v>
       </c>
       <c r="E29" t="n">
-        <v>889.8428338947862</v>
+        <v>889.8428338947865</v>
       </c>
       <c r="F29" t="n">
-        <v>602.8735660302301</v>
+        <v>602.8735660302304</v>
       </c>
       <c r="G29" t="n">
-        <v>313.968246654415</v>
+        <v>313.9682466544159</v>
       </c>
       <c r="H29" t="n">
         <v>108.5003780973951</v>
       </c>
       <c r="I29" t="n">
-        <v>63.51063848140878</v>
+        <v>63.5106384814088</v>
       </c>
       <c r="J29" t="n">
         <v>261.5530596521958</v>
@@ -6470,28 +6470,28 @@
         <v>1103.558167224299</v>
       </c>
       <c r="M29" t="n">
-        <v>1624.329987266462</v>
+        <v>1624.329987266463</v>
       </c>
       <c r="N29" t="n">
-        <v>2130.240627872797</v>
+        <v>2130.240627872798</v>
       </c>
       <c r="O29" t="n">
-        <v>2562.661306067806</v>
+        <v>2562.661306067807</v>
       </c>
       <c r="P29" t="n">
-        <v>2917.829146418285</v>
+        <v>2917.829146418286</v>
       </c>
       <c r="Q29" t="n">
-        <v>3138.684620325069</v>
+        <v>3138.68462032507</v>
       </c>
       <c r="R29" t="n">
-        <v>3175.531924070439</v>
+        <v>3175.53192407044</v>
       </c>
       <c r="S29" t="n">
-        <v>3115.866433281448</v>
+        <v>3115.866433281449</v>
       </c>
       <c r="T29" t="n">
-        <v>3018.762708206759</v>
+        <v>3018.76270820676</v>
       </c>
       <c r="U29" t="n">
         <v>2891.060634293605</v>
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>942.4194574635561</v>
+        <v>942.4194574635554</v>
       </c>
       <c r="C30" t="n">
-        <v>780.715784704511</v>
+        <v>780.7157847045102</v>
       </c>
       <c r="D30" t="n">
-        <v>641.8771476947231</v>
+        <v>641.8771476947222</v>
       </c>
       <c r="E30" t="n">
-        <v>494.8491377515943</v>
+        <v>494.8491377515935</v>
       </c>
       <c r="F30" t="n">
-        <v>360.1553397014686</v>
+        <v>360.1553397014678</v>
       </c>
       <c r="G30" t="n">
         <v>231.4357987390069</v>
@@ -6537,13 +6537,13 @@
         <v>131.5844665023211</v>
       </c>
       <c r="I30" t="n">
-        <v>63.51063848140878</v>
+        <v>63.5106384814088</v>
       </c>
       <c r="J30" t="n">
-        <v>124.5943714274463</v>
+        <v>124.5943714274464</v>
       </c>
       <c r="K30" t="n">
-        <v>355.5028193019145</v>
+        <v>355.5028193019146</v>
       </c>
       <c r="L30" t="n">
         <v>723.2311997012289</v>
@@ -6552,40 +6552,40 @@
         <v>1210.489389898473</v>
       </c>
       <c r="N30" t="n">
-        <v>1724.03875751551</v>
+        <v>1724.038757515509</v>
       </c>
       <c r="O30" t="n">
-        <v>2118.327867305385</v>
+        <v>2118.327867305384</v>
       </c>
       <c r="P30" t="n">
-        <v>2422.100520866687</v>
+        <v>2422.100520866686</v>
       </c>
       <c r="Q30" t="n">
-        <v>2580.993003117902</v>
+        <v>2580.993003117901</v>
       </c>
       <c r="R30" t="n">
-        <v>2521.764978975073</v>
+        <v>2521.764978975072</v>
       </c>
       <c r="S30" t="n">
-        <v>2369.131901748199</v>
+        <v>2369.131901748198</v>
       </c>
       <c r="T30" t="n">
-        <v>2180.482909028657</v>
+        <v>2180.482909028656</v>
       </c>
       <c r="U30" t="n">
-        <v>1961.9887060358</v>
+        <v>1961.988706035799</v>
       </c>
       <c r="V30" t="n">
-        <v>1733.593083484134</v>
+        <v>1733.593083484133</v>
       </c>
       <c r="W30" t="n">
-        <v>1492.277214717444</v>
+        <v>1492.277214717443</v>
       </c>
       <c r="X30" t="n">
-        <v>1294.360226595238</v>
+        <v>1294.360226595237</v>
       </c>
       <c r="Y30" t="n">
-        <v>1101.838900244817</v>
+        <v>1101.838900244816</v>
       </c>
     </row>
     <row r="31">
@@ -6613,25 +6613,25 @@
         <v>112.4298290465463</v>
       </c>
       <c r="H31" t="n">
-        <v>80.30588570557602</v>
+        <v>80.30588570557603</v>
       </c>
       <c r="I31" t="n">
-        <v>63.51063848140878</v>
+        <v>63.5106384814088</v>
       </c>
       <c r="J31" t="n">
         <v>129.8199973599552</v>
       </c>
       <c r="K31" t="n">
-        <v>164.2794539528491</v>
+        <v>229.5962098508816</v>
       </c>
       <c r="L31" t="n">
-        <v>331.2977389181432</v>
+        <v>455.9487414791939</v>
       </c>
       <c r="M31" t="n">
-        <v>575.0961913274828</v>
+        <v>575.0961913274829</v>
       </c>
       <c r="N31" t="n">
-        <v>819.2960411563341</v>
+        <v>694.6450385952835</v>
       </c>
       <c r="O31" t="n">
         <v>918.8001978282834</v>
@@ -6649,10 +6649,10 @@
         <v>1086.407913107304</v>
       </c>
       <c r="T31" t="n">
-        <v>980.4429749319039</v>
+        <v>980.4429749319038</v>
       </c>
       <c r="U31" t="n">
-        <v>820.4350679337282</v>
+        <v>820.4350679337281</v>
       </c>
       <c r="V31" t="n">
         <v>686.8816863174244</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1536.514972066723</v>
+        <v>1536.514972066725</v>
       </c>
       <c r="C32" t="n">
-        <v>1298.36914543603</v>
+        <v>1298.369145436032</v>
       </c>
       <c r="D32" t="n">
-        <v>1069.333112699754</v>
+        <v>1069.333112699755</v>
       </c>
       <c r="E32" t="n">
-        <v>818.3353248423612</v>
+        <v>818.3353248423621</v>
       </c>
       <c r="F32" t="n">
-        <v>547.9720661890317</v>
+        <v>547.9720661890328</v>
       </c>
       <c r="G32" t="n">
-        <v>275.6727560244431</v>
+        <v>275.672756024444</v>
       </c>
       <c r="H32" t="n">
-        <v>86.81089667865024</v>
+        <v>86.81089667865055</v>
       </c>
       <c r="I32" t="n">
-        <v>58.42716627389044</v>
+        <v>58.42716627389052</v>
       </c>
       <c r="J32" t="n">
-        <v>272.7451370726006</v>
+        <v>272.7451370726004</v>
       </c>
       <c r="K32" t="n">
-        <v>655.8996188719925</v>
+        <v>655.8996188719921</v>
       </c>
       <c r="L32" t="n">
-        <v>1147.30134390055</v>
+        <v>1086.707216832088</v>
       </c>
       <c r="M32" t="n">
-        <v>1684.348713570637</v>
+        <v>1482.828034313201</v>
       </c>
       <c r="N32" t="n">
-        <v>2092.817923363135</v>
+        <v>2005.014224547458</v>
       </c>
       <c r="O32" t="n">
-        <v>2541.514151186067</v>
+        <v>2312.783900181417</v>
       </c>
       <c r="P32" t="n">
-        <v>2772.030988975496</v>
+        <v>2684.227290159819</v>
       </c>
       <c r="Q32" t="n">
-        <v>2868.235460321229</v>
+        <v>2921.358313694526</v>
       </c>
       <c r="R32" t="n">
-        <v>2921.358313694522</v>
+        <v>2921.358313694526</v>
       </c>
       <c r="S32" t="n">
-        <v>2878.298832116758</v>
+        <v>2878.298832116762</v>
       </c>
       <c r="T32" t="n">
-        <v>2797.801116253296</v>
+        <v>2797.801116253299</v>
       </c>
       <c r="U32" t="n">
-        <v>2686.705051551368</v>
+        <v>2686.705051551371</v>
       </c>
       <c r="V32" t="n">
-        <v>2493.513709483809</v>
+        <v>2493.513709483812</v>
       </c>
       <c r="W32" t="n">
-        <v>2274.76671137791</v>
+        <v>2274.766711377913</v>
       </c>
       <c r="X32" t="n">
-        <v>2036.524502935904</v>
+        <v>2036.524502935906</v>
       </c>
       <c r="Y32" t="n">
-        <v>1786.770579548242</v>
+        <v>1786.770579548244</v>
       </c>
     </row>
     <row r="33">
@@ -6765,7 +6765,7 @@
         <v>489.7656655440762</v>
       </c>
       <c r="F33" t="n">
-        <v>355.0718674939494</v>
+        <v>355.0718674939495</v>
       </c>
       <c r="G33" t="n">
         <v>226.3523265314886</v>
@@ -6774,16 +6774,16 @@
         <v>126.5009942948028</v>
       </c>
       <c r="I33" t="n">
-        <v>58.42716627389044</v>
+        <v>58.42716627389052</v>
       </c>
       <c r="J33" t="n">
-        <v>119.510899219928</v>
+        <v>119.5108992199281</v>
       </c>
       <c r="K33" t="n">
-        <v>350.4193470943962</v>
+        <v>350.4193470943964</v>
       </c>
       <c r="L33" t="n">
-        <v>718.1477274937106</v>
+        <v>718.1477274937107</v>
       </c>
       <c r="M33" t="n">
         <v>1205.405917690955</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>151.2844478530868</v>
+        <v>151.2844478530885</v>
       </c>
       <c r="C34" t="n">
-        <v>125.4564103512673</v>
+        <v>125.4564103512687</v>
       </c>
       <c r="D34" t="n">
-        <v>116.1724492155302</v>
+        <v>116.1724492155314</v>
       </c>
       <c r="E34" t="n">
-        <v>107.9513670133492</v>
+        <v>107.9513670133502</v>
       </c>
       <c r="F34" t="n">
-        <v>99.25864407562652</v>
+        <v>99.25864407562727</v>
       </c>
       <c r="G34" t="n">
-        <v>74.13433841657491</v>
+        <v>74.13433841657543</v>
       </c>
       <c r="H34" t="n">
-        <v>58.61640428683113</v>
+        <v>58.61640428683144</v>
       </c>
       <c r="I34" t="n">
-        <v>58.42716627389044</v>
+        <v>58.42716627389052</v>
       </c>
       <c r="J34" t="n">
-        <v>58.42716627389044</v>
+        <v>58.42716627389052</v>
       </c>
       <c r="K34" t="n">
-        <v>233.8131750557581</v>
+        <v>92.88662286678438</v>
       </c>
       <c r="L34" t="n">
-        <v>476.4412563119936</v>
+        <v>335.5147041230197</v>
       </c>
       <c r="M34" t="n">
-        <v>595.5887061602825</v>
+        <v>454.6621539713086</v>
       </c>
       <c r="N34" t="n">
-        <v>715.1375534280832</v>
+        <v>574.2110012391092</v>
       </c>
       <c r="O34" t="n">
-        <v>814.6417101000325</v>
+        <v>673.7151579110586</v>
       </c>
       <c r="P34" t="n">
-        <v>924.0273776890621</v>
+        <v>820.2548511118874</v>
       </c>
       <c r="Q34" t="n">
-        <v>924.0273776890621</v>
+        <v>924.0273776890658</v>
       </c>
       <c r="R34" t="n">
-        <v>918.6312473618925</v>
+        <v>918.631247361896</v>
       </c>
       <c r="S34" t="n">
-        <v>848.8403119426144</v>
+        <v>848.8403119426177</v>
       </c>
       <c r="T34" t="n">
-        <v>759.4813829784404</v>
+        <v>759.4813829784434</v>
       </c>
       <c r="U34" t="n">
-        <v>616.0794851914912</v>
+        <v>616.0794851914941</v>
       </c>
       <c r="V34" t="n">
-        <v>499.132112786414</v>
+        <v>499.1321127864166</v>
       </c>
       <c r="W34" t="n">
-        <v>356.7636433403133</v>
+        <v>356.7636433403156</v>
       </c>
       <c r="X34" t="n">
-        <v>269.2991112721892</v>
+        <v>269.2991112721913</v>
       </c>
       <c r="Y34" t="n">
-        <v>191.0518845009665</v>
+        <v>191.0518845009684</v>
       </c>
     </row>
     <row r="35">
@@ -6920,40 +6920,40 @@
         <v>947.1335432795152</v>
       </c>
       <c r="E35" t="n">
-        <v>719.1656742743983</v>
+        <v>719.165674274398</v>
       </c>
       <c r="F35" t="n">
-        <v>471.8323344733444</v>
+        <v>471.8323344733445</v>
       </c>
       <c r="G35" t="n">
-        <v>222.5629431610318</v>
+        <v>222.5629431610319</v>
       </c>
       <c r="H35" t="n">
-        <v>56.73100266751438</v>
+        <v>56.73100266751435</v>
       </c>
       <c r="I35" t="n">
         <v>51.37719111503048</v>
       </c>
       <c r="J35" t="n">
-        <v>124.7686097247668</v>
+        <v>288.2667853808563</v>
       </c>
       <c r="K35" t="n">
-        <v>366.9965393351849</v>
+        <v>530.4947149912743</v>
       </c>
       <c r="L35" t="n">
-        <v>717.4717121747688</v>
+        <v>1044.468063486948</v>
       </c>
       <c r="M35" t="n">
-        <v>1113.592529655882</v>
+        <v>1440.58888096806</v>
       </c>
       <c r="N35" t="n">
-        <v>1494.852167701165</v>
+        <v>1821.848519013344</v>
       </c>
       <c r="O35" t="n">
-        <v>1966.120018991214</v>
+        <v>2129.618194647303</v>
       </c>
       <c r="P35" t="n">
-        <v>2233.462431909293</v>
+        <v>2396.960607565382</v>
       </c>
       <c r="Q35" t="n">
         <v>2493.165078911115</v>
@@ -6962,7 +6962,7 @@
         <v>2568.859555751524</v>
       </c>
       <c r="S35" t="n">
-        <v>2548.829993026035</v>
+        <v>2548.829993026036</v>
       </c>
       <c r="T35" t="n">
         <v>2491.362196014849</v>
@@ -6999,10 +6999,10 @@
         <v>629.743700328345</v>
       </c>
       <c r="E36" t="n">
-        <v>482.7156903852162</v>
+        <v>482.7156903852151</v>
       </c>
       <c r="F36" t="n">
-        <v>348.0218923350906</v>
+        <v>348.0218923350895</v>
       </c>
       <c r="G36" t="n">
         <v>219.3023513726286</v>
@@ -7014,13 +7014,13 @@
         <v>51.37719111503048</v>
       </c>
       <c r="J36" t="n">
-        <v>112.460924061068</v>
+        <v>112.4609240610681</v>
       </c>
       <c r="K36" t="n">
         <v>343.3693719355363</v>
       </c>
       <c r="L36" t="n">
-        <v>711.0977523348504</v>
+        <v>711.0977523348506</v>
       </c>
       <c r="M36" t="n">
         <v>1198.355942532095</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>56.26969657134984</v>
+        <v>56.26969657134978</v>
       </c>
       <c r="C37" t="n">
-        <v>53.4715779218062</v>
+        <v>53.47157792180617</v>
       </c>
       <c r="D37" t="n">
-        <v>53.4715779218062</v>
+        <v>53.47157792180617</v>
       </c>
       <c r="E37" t="n">
-        <v>53.4715779218062</v>
+        <v>53.47157792180617</v>
       </c>
       <c r="F37" t="n">
-        <v>53.4715779218062</v>
+        <v>53.47157792180617</v>
       </c>
       <c r="G37" t="n">
         <v>51.37719111503048</v>
@@ -7093,52 +7093,52 @@
         <v>51.37719111503048</v>
       </c>
       <c r="J37" t="n">
-        <v>101.1568858761387</v>
+        <v>51.37719111503048</v>
       </c>
       <c r="K37" t="n">
-        <v>135.6163424690325</v>
+        <v>85.83664770792434</v>
       </c>
       <c r="L37" t="n">
-        <v>237.3178715362942</v>
+        <v>187.538176775186</v>
       </c>
       <c r="M37" t="n">
-        <v>356.4653213845831</v>
+        <v>356.4653213845827</v>
       </c>
       <c r="N37" t="n">
-        <v>476.0141686523838</v>
+        <v>476.0141686523833</v>
       </c>
       <c r="O37" t="n">
-        <v>575.5183253243331</v>
+        <v>575.5183253243326</v>
       </c>
       <c r="P37" t="n">
-        <v>639.3771452619485</v>
+        <v>639.377145261948</v>
       </c>
       <c r="Q37" t="n">
-        <v>639.3771452619485</v>
+        <v>639.377145261948</v>
       </c>
       <c r="R37" t="n">
-        <v>639.3771452619485</v>
+        <v>639.377145261948</v>
       </c>
       <c r="S37" t="n">
-        <v>592.6161286949463</v>
+        <v>592.6161286949459</v>
       </c>
       <c r="T37" t="n">
-        <v>526.287118583048</v>
+        <v>526.2871185830478</v>
       </c>
       <c r="U37" t="n">
-        <v>405.9151396483747</v>
+        <v>405.9151396483746</v>
       </c>
       <c r="V37" t="n">
-        <v>311.9976860955734</v>
+        <v>311.9976860955733</v>
       </c>
       <c r="W37" t="n">
-        <v>192.6591355017486</v>
+        <v>192.6591355017485</v>
       </c>
       <c r="X37" t="n">
-        <v>128.2245222859004</v>
+        <v>128.2245222859003</v>
       </c>
       <c r="Y37" t="n">
-        <v>73.0072143669536</v>
+        <v>73.00721436695352</v>
       </c>
     </row>
     <row r="38">
@@ -7163,16 +7163,16 @@
         <v>471.8323344733445</v>
       </c>
       <c r="G38" t="n">
-        <v>222.5629431610318</v>
+        <v>222.5629431610319</v>
       </c>
       <c r="H38" t="n">
-        <v>56.73100266751437</v>
+        <v>56.73100266751435</v>
       </c>
       <c r="I38" t="n">
         <v>51.37719111503048</v>
       </c>
       <c r="J38" t="n">
-        <v>124.7686097247668</v>
+        <v>288.2667853808563</v>
       </c>
       <c r="K38" t="n">
         <v>530.4947149912743</v>
@@ -7181,16 +7181,16 @@
         <v>880.9698878308583</v>
       </c>
       <c r="M38" t="n">
-        <v>1389.61075728103</v>
+        <v>1277.090705311971</v>
       </c>
       <c r="N38" t="n">
-        <v>1770.870395326313</v>
+        <v>1658.350343357255</v>
       </c>
       <c r="O38" t="n">
-        <v>2078.640070960272</v>
+        <v>2129.618194647303</v>
       </c>
       <c r="P38" t="n">
-        <v>2472.65508440579</v>
+        <v>2360.135032436731</v>
       </c>
       <c r="Q38" t="n">
         <v>2568.859555751524</v>
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>930.2860100971778</v>
+        <v>930.2860100971782</v>
       </c>
       <c r="C39" t="n">
-        <v>768.5823373381327</v>
+        <v>768.5823373381329</v>
       </c>
       <c r="D39" t="n">
-        <v>629.7437003283449</v>
+        <v>629.743700328345</v>
       </c>
       <c r="E39" t="n">
-        <v>482.715690385216</v>
+        <v>482.7156903852162</v>
       </c>
       <c r="F39" t="n">
-        <v>348.0218923350903</v>
+        <v>348.0218923350906</v>
       </c>
       <c r="G39" t="n">
-        <v>219.3023513726292</v>
+        <v>219.3023513726297</v>
       </c>
       <c r="H39" t="n">
-        <v>119.4510191359428</v>
+        <v>119.4510191359439</v>
       </c>
       <c r="I39" t="n">
         <v>51.37719111503048</v>
@@ -7306,7 +7306,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>54.17530976457412</v>
+        <v>54.1753097645741</v>
       </c>
       <c r="C40" t="n">
         <v>51.37719111503048</v>
@@ -7315,67 +7315,67 @@
         <v>51.37719111503048</v>
       </c>
       <c r="E40" t="n">
-        <v>65.8913319157885</v>
+        <v>51.37719111503048</v>
       </c>
       <c r="F40" t="n">
-        <v>65.8913319157885</v>
+        <v>53.47157792180617</v>
       </c>
       <c r="G40" t="n">
-        <v>63.79694510901278</v>
+        <v>51.37719111503048</v>
       </c>
       <c r="H40" t="n">
-        <v>63.79694510901278</v>
+        <v>51.37719111503048</v>
       </c>
       <c r="I40" t="n">
-        <v>63.79694510901278</v>
+        <v>51.37719111503048</v>
       </c>
       <c r="J40" t="n">
-        <v>99.062499069363</v>
+        <v>51.37719111503048</v>
       </c>
       <c r="K40" t="n">
-        <v>133.5219556622569</v>
+        <v>85.83664770792434</v>
       </c>
       <c r="L40" t="n">
-        <v>235.2234847295185</v>
+        <v>187.538176775186</v>
       </c>
       <c r="M40" t="n">
-        <v>354.3709345778075</v>
+        <v>306.6856266234749</v>
       </c>
       <c r="N40" t="n">
-        <v>473.9197818456081</v>
+        <v>426.2344738912756</v>
       </c>
       <c r="O40" t="n">
-        <v>573.4239385175574</v>
+        <v>525.7386305632249</v>
       </c>
       <c r="P40" t="n">
-        <v>637.2827584551728</v>
+        <v>637.2827584551724</v>
       </c>
       <c r="Q40" t="n">
-        <v>637.2827584551728</v>
+        <v>637.2827584551724</v>
       </c>
       <c r="R40" t="n">
-        <v>637.2827584551728</v>
+        <v>637.2827584551724</v>
       </c>
       <c r="S40" t="n">
-        <v>590.5217418881706</v>
+        <v>590.5217418881703</v>
       </c>
       <c r="T40" t="n">
-        <v>524.1927317762724</v>
+        <v>524.192731776272</v>
       </c>
       <c r="U40" t="n">
-        <v>403.8207528415991</v>
+        <v>403.8207528415988</v>
       </c>
       <c r="V40" t="n">
-        <v>309.9032992887977</v>
+        <v>309.9032992887975</v>
       </c>
       <c r="W40" t="n">
-        <v>190.5647486949729</v>
+        <v>190.5647486949728</v>
       </c>
       <c r="X40" t="n">
-        <v>126.1301354791247</v>
+        <v>126.1301354791246</v>
       </c>
       <c r="Y40" t="n">
-        <v>70.91282756017787</v>
+        <v>70.91282756017782</v>
       </c>
     </row>
     <row r="41">
@@ -7385,58 +7385,58 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1334.182088076239</v>
+        <v>1105.637786519855</v>
       </c>
       <c r="C41" t="n">
-        <v>1086.238957995063</v>
+        <v>857.6946564386792</v>
       </c>
       <c r="D41" t="n">
-        <v>1086.238957995063</v>
+        <v>618.8613202519196</v>
       </c>
       <c r="E41" t="n">
-        <v>825.4438666871861</v>
+        <v>358.0662289440429</v>
       </c>
       <c r="F41" t="n">
-        <v>545.2833045833731</v>
+        <v>250.0363539113074</v>
       </c>
       <c r="G41" t="n">
-        <v>263.186690968301</v>
+        <v>250.0363539113074</v>
       </c>
       <c r="H41" t="n">
-        <v>64.52752817202401</v>
+        <v>51.37719111503048</v>
       </c>
       <c r="I41" t="n">
         <v>51.37719111503048</v>
       </c>
       <c r="J41" t="n">
-        <v>256.0928248019217</v>
+        <v>124.7686097247668</v>
       </c>
       <c r="K41" t="n">
-        <v>629.6449694894948</v>
+        <v>366.9965393351849</v>
       </c>
       <c r="L41" t="n">
-        <v>980.1201423290787</v>
+        <v>763.0154702245426</v>
       </c>
       <c r="M41" t="n">
-        <v>1378.264201598491</v>
+        <v>1159.136287705655</v>
       </c>
       <c r="N41" t="n">
-        <v>1890.848054720929</v>
+        <v>1671.720140828094</v>
       </c>
       <c r="O41" t="n">
-        <v>2198.617730354888</v>
+        <v>1979.489816462053</v>
       </c>
       <c r="P41" t="n">
-        <v>2429.134568144316</v>
+        <v>2341.330869328636</v>
       </c>
       <c r="Q41" t="n">
-        <v>2525.33903949005</v>
+        <v>2568.859555751524</v>
       </c>
       <c r="R41" t="n">
         <v>2568.859555751524</v>
       </c>
       <c r="S41" t="n">
-        <v>2516.002770723276</v>
+        <v>2516.002770723277</v>
       </c>
       <c r="T41" t="n">
         <v>2425.70775140933</v>
@@ -7448,13 +7448,13 @@
         <v>2101.825737738876</v>
       </c>
       <c r="W41" t="n">
-        <v>2101.825737738876</v>
+        <v>1873.281436182494</v>
       </c>
       <c r="X41" t="n">
-        <v>1853.786225846387</v>
+        <v>1625.241924290003</v>
       </c>
       <c r="Y41" t="n">
-        <v>1594.234999008241</v>
+        <v>1365.690697451858</v>
       </c>
     </row>
     <row r="42">
@@ -7467,19 +7467,19 @@
         <v>930.2860100971782</v>
       </c>
       <c r="C42" t="n">
-        <v>768.5823373381319</v>
+        <v>768.5823373381329</v>
       </c>
       <c r="D42" t="n">
-        <v>629.7437003283439</v>
+        <v>629.743700328345</v>
       </c>
       <c r="E42" t="n">
-        <v>482.7156903852151</v>
+        <v>482.7156903852162</v>
       </c>
       <c r="F42" t="n">
-        <v>348.0218923350895</v>
+        <v>348.0218923350906</v>
       </c>
       <c r="G42" t="n">
-        <v>219.3023513726286</v>
+        <v>219.3023513726297</v>
       </c>
       <c r="H42" t="n">
         <v>119.4510191359428</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>212.8155968476116</v>
+        <v>212.8155968476122</v>
       </c>
       <c r="C43" t="n">
-        <v>177.1902558953085</v>
+        <v>177.1902558953091</v>
       </c>
       <c r="D43" t="n">
-        <v>158.1089913090879</v>
+        <v>158.1089913090883</v>
       </c>
       <c r="E43" t="n">
-        <v>140.0906056564234</v>
+        <v>140.0906056564237</v>
       </c>
       <c r="F43" t="n">
-        <v>121.6005792682171</v>
+        <v>121.6005792682174</v>
       </c>
       <c r="G43" t="n">
-        <v>86.67897015868199</v>
+        <v>86.67897015868218</v>
       </c>
       <c r="H43" t="n">
-        <v>61.3637325784547</v>
+        <v>61.36373257845479</v>
       </c>
       <c r="I43" t="n">
         <v>51.37719111503048</v>
       </c>
       <c r="J43" t="n">
-        <v>124.3597625096812</v>
+        <v>51.37719111503048</v>
       </c>
       <c r="K43" t="n">
-        <v>158.819219102575</v>
+        <v>85.83664770792434</v>
       </c>
       <c r="L43" t="n">
-        <v>260.5207481698367</v>
+        <v>187.538176775186</v>
       </c>
       <c r="M43" t="n">
-        <v>510.9924130952805</v>
+        <v>438.0098417006297</v>
       </c>
       <c r="N43" t="n">
-        <v>684.8768765858595</v>
+        <v>684.8768765858607</v>
       </c>
       <c r="O43" t="n">
-        <v>784.3810332578088</v>
+        <v>784.38103325781</v>
       </c>
       <c r="P43" t="n">
-        <v>979.5640682725791</v>
+        <v>979.5640682725804</v>
       </c>
       <c r="Q43" t="n">
-        <v>1073.734257737939</v>
+        <v>1073.73425773794</v>
       </c>
       <c r="R43" t="n">
-        <v>1058.540823960286</v>
+        <v>1058.540823960287</v>
       </c>
       <c r="S43" t="n">
-        <v>978.9525850905241</v>
+        <v>978.9525850905252</v>
       </c>
       <c r="T43" t="n">
-        <v>879.7963526758664</v>
+        <v>879.7963526758674</v>
       </c>
       <c r="U43" t="n">
-        <v>726.5971514384337</v>
+        <v>726.5971514384346</v>
       </c>
       <c r="V43" t="n">
-        <v>599.8524755828729</v>
+        <v>599.8524755828738</v>
       </c>
       <c r="W43" t="n">
-        <v>447.6867026862886</v>
+        <v>447.6867026862894</v>
       </c>
       <c r="X43" t="n">
-        <v>350.424867167681</v>
+        <v>350.4248671676818</v>
       </c>
       <c r="Y43" t="n">
-        <v>262.3803369459748</v>
+        <v>262.3803369459754</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1537.170733594281</v>
+        <v>1105.637786519856</v>
       </c>
       <c r="C44" t="n">
-        <v>1289.227603513104</v>
+        <v>857.6946564386799</v>
       </c>
       <c r="D44" t="n">
-        <v>1050.394267326345</v>
+        <v>618.86132025192</v>
       </c>
       <c r="E44" t="n">
-        <v>789.5991760184684</v>
+        <v>530.1969160151207</v>
       </c>
       <c r="F44" t="n">
-        <v>532.1329675263794</v>
+        <v>250.0363539113076</v>
       </c>
       <c r="G44" t="n">
-        <v>250.0363539113073</v>
+        <v>250.0363539113076</v>
       </c>
       <c r="H44" t="n">
         <v>51.37719111503048</v>
@@ -7646,25 +7646,25 @@
         <v>51.37719111503048</v>
       </c>
       <c r="J44" t="n">
-        <v>124.7686097247668</v>
+        <v>170.3123677745404</v>
       </c>
       <c r="K44" t="n">
-        <v>498.3207544123399</v>
+        <v>412.5402973849585</v>
       </c>
       <c r="L44" t="n">
-        <v>980.1201423290787</v>
+        <v>894.3396853016973</v>
       </c>
       <c r="M44" t="n">
-        <v>1376.240959810191</v>
+        <v>1421.784717859965</v>
       </c>
       <c r="N44" t="n">
-        <v>1757.500597855475</v>
+        <v>1803.044355905248</v>
       </c>
       <c r="O44" t="n">
-        <v>2065.270273489434</v>
+        <v>2242.138246616362</v>
       </c>
       <c r="P44" t="n">
-        <v>2427.111326356017</v>
+        <v>2472.655084405791</v>
       </c>
       <c r="Q44" t="n">
         <v>2568.859555751524</v>
@@ -7682,16 +7682,16 @@
         <v>2304.814383256919</v>
       </c>
       <c r="V44" t="n">
-        <v>2304.814383256919</v>
+        <v>2101.825737738876</v>
       </c>
       <c r="W44" t="n">
-        <v>2304.814383256919</v>
+        <v>1873.281436182494</v>
       </c>
       <c r="X44" t="n">
-        <v>2056.774871364429</v>
+        <v>1625.241924290004</v>
       </c>
       <c r="Y44" t="n">
-        <v>1797.223644526283</v>
+        <v>1365.690697451859</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>930.2860100971772</v>
+        <v>930.2860100971782</v>
       </c>
       <c r="C45" t="n">
-        <v>768.5823373381319</v>
+        <v>768.5823373381329</v>
       </c>
       <c r="D45" t="n">
-        <v>629.7437003283439</v>
+        <v>629.743700328345</v>
       </c>
       <c r="E45" t="n">
-        <v>482.7156903852151</v>
+        <v>482.7156903852162</v>
       </c>
       <c r="F45" t="n">
-        <v>348.0218923350895</v>
+        <v>348.0218923350906</v>
       </c>
       <c r="G45" t="n">
-        <v>219.3023513726286</v>
+        <v>219.3023513726297</v>
       </c>
       <c r="H45" t="n">
-        <v>119.4510191359428</v>
+        <v>119.4510191359439</v>
       </c>
       <c r="I45" t="n">
         <v>51.37719111503048</v>
@@ -7731,7 +7731,7 @@
         <v>343.3693719355363</v>
       </c>
       <c r="L45" t="n">
-        <v>711.0977523348506</v>
+        <v>711.0977523348508</v>
       </c>
       <c r="M45" t="n">
         <v>1198.355942532095</v>
@@ -7749,28 +7749,28 @@
         <v>2568.859555751524</v>
       </c>
       <c r="R45" t="n">
-        <v>2509.631531608693</v>
+        <v>2509.631531608694</v>
       </c>
       <c r="S45" t="n">
         <v>2356.99845438182</v>
       </c>
       <c r="T45" t="n">
-        <v>2168.349461662278</v>
+        <v>2168.349461662279</v>
       </c>
       <c r="U45" t="n">
-        <v>1949.855258669421</v>
+        <v>1949.855258669422</v>
       </c>
       <c r="V45" t="n">
-        <v>1721.459636117755</v>
+        <v>1721.459636117756</v>
       </c>
       <c r="W45" t="n">
         <v>1480.143767351065</v>
       </c>
       <c r="X45" t="n">
-        <v>1282.226779228859</v>
+        <v>1282.22677922886</v>
       </c>
       <c r="Y45" t="n">
-        <v>1089.705452878438</v>
+        <v>1089.705452878439</v>
       </c>
     </row>
     <row r="46">
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>212.8155968476116</v>
+        <v>212.8155968476122</v>
       </c>
       <c r="C46" t="n">
-        <v>177.1902558953085</v>
+        <v>177.1902558953091</v>
       </c>
       <c r="D46" t="n">
-        <v>158.1089913090879</v>
+        <v>158.1089913090883</v>
       </c>
       <c r="E46" t="n">
-        <v>140.0906056564234</v>
+        <v>140.0906056564237</v>
       </c>
       <c r="F46" t="n">
-        <v>121.6005792682171</v>
+        <v>121.6005792682174</v>
       </c>
       <c r="G46" t="n">
-        <v>86.67897015868199</v>
+        <v>86.67897015868218</v>
       </c>
       <c r="H46" t="n">
-        <v>61.3637325784547</v>
+        <v>61.36373257845479</v>
       </c>
       <c r="I46" t="n">
         <v>51.37719111503048</v>
@@ -7807,49 +7807,49 @@
         <v>51.37719111503048</v>
       </c>
       <c r="K46" t="n">
-        <v>85.83664770792434</v>
+        <v>217.1608627850792</v>
       </c>
       <c r="L46" t="n">
-        <v>314.856364392615</v>
+        <v>446.1805794697713</v>
       </c>
       <c r="M46" t="n">
-        <v>565.3280293180588</v>
+        <v>696.652244395215</v>
       </c>
       <c r="N46" t="n">
-        <v>684.8768765858595</v>
+        <v>816.2010916630156</v>
       </c>
       <c r="O46" t="n">
-        <v>915.7052483349637</v>
+        <v>915.7052483349649</v>
       </c>
       <c r="P46" t="n">
-        <v>979.5640682725791</v>
+        <v>979.5640682725804</v>
       </c>
       <c r="Q46" t="n">
-        <v>1073.734257737939</v>
+        <v>1073.73425773794</v>
       </c>
       <c r="R46" t="n">
-        <v>1058.540823960286</v>
+        <v>1058.540823960287</v>
       </c>
       <c r="S46" t="n">
-        <v>978.9525850905241</v>
+        <v>978.9525850905252</v>
       </c>
       <c r="T46" t="n">
-        <v>879.7963526758664</v>
+        <v>879.7963526758674</v>
       </c>
       <c r="U46" t="n">
-        <v>726.5971514384337</v>
+        <v>726.5971514384346</v>
       </c>
       <c r="V46" t="n">
-        <v>599.8524755828729</v>
+        <v>599.8524755828738</v>
       </c>
       <c r="W46" t="n">
-        <v>447.6867026862886</v>
+        <v>447.6867026862894</v>
       </c>
       <c r="X46" t="n">
-        <v>350.424867167681</v>
+        <v>350.4248671676818</v>
       </c>
       <c r="Y46" t="n">
-        <v>262.3803369459748</v>
+        <v>262.3803369459754</v>
       </c>
     </row>
   </sheetData>
@@ -7982,10 +7982,10 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L2" t="n">
-        <v>291.3533787454858</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M2" t="n">
-        <v>584.3675935406823</v>
+        <v>332.7613933705851</v>
       </c>
       <c r="N2" t="n">
         <v>568.5510017355793</v>
@@ -8061,22 +8061,22 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L3" t="n">
-        <v>482.0924488944969</v>
+        <v>419.6192629173809</v>
       </c>
       <c r="M3" t="n">
-        <v>577.243701232651</v>
+        <v>577.2437012326517</v>
       </c>
       <c r="N3" t="n">
-        <v>568.4749397387195</v>
+        <v>568.4749397387202</v>
       </c>
       <c r="O3" t="n">
-        <v>199.1683732300574</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P3" t="n">
-        <v>108.8542060241433</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q3" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K5" t="n">
         <v>421.3890363425141</v>
@@ -8222,7 +8222,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M5" t="n">
-        <v>584.3675935406823</v>
+        <v>332.7613933705851</v>
       </c>
       <c r="N5" t="n">
         <v>568.5510017355793</v>
@@ -8231,10 +8231,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P5" t="n">
-        <v>334.8440375834769</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q5" t="n">
-        <v>180.6233730229902</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R5" t="n">
         <v>85.43134583487716</v>
@@ -8298,22 +8298,22 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L6" t="n">
-        <v>482.0924488944969</v>
+        <v>325.8522125280441</v>
       </c>
       <c r="M6" t="n">
-        <v>577.243701232651</v>
+        <v>577.2437012326517</v>
       </c>
       <c r="N6" t="n">
-        <v>568.4749397387195</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O6" t="n">
-        <v>115.8594486111111</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P6" t="n">
-        <v>351.528413254801</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q6" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8529,16 +8529,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K9" t="n">
-        <v>114.7960015863129</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L9" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M9" t="n">
-        <v>605.4165828749999</v>
+        <v>156.1797194573845</v>
       </c>
       <c r="N9" t="n">
         <v>623.1450866466196</v>
@@ -8550,7 +8550,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q9" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8784,7 +8784,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
-        <v>414.0015992319183</v>
+        <v>414.001599231918</v>
       </c>
       <c r="Q12" t="n">
         <v>273.1004740566038</v>
@@ -9003,7 +9003,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>163.9183459425317</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
         <v>343.8048081163522</v>
@@ -9243,7 +9243,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
-        <v>343.8048081163524</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L18" t="n">
         <v>482.0924488944969</v>
@@ -9252,7 +9252,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>623.1450866466196</v>
+        <v>623.1450866466193</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
@@ -9486,10 +9486,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
-        <v>605.4165828749999</v>
+        <v>605.4165828749997</v>
       </c>
       <c r="N21" t="n">
-        <v>623.1450866466198</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
@@ -9714,7 +9714,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>163.9183459425317</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
         <v>343.8048081163522</v>
@@ -9726,7 +9726,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>623.1450866466196</v>
+        <v>623.1450866466175</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -9963,7 +9963,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>623.1450866466189</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
@@ -10200,7 +10200,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>623.1450866466196</v>
+        <v>623.1450866466189</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
@@ -10911,10 +10911,10 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>623.1450866466198</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O39" t="n">
-        <v>512.0210150597484</v>
+        <v>512.0210150597485</v>
       </c>
       <c r="P39" t="n">
         <v>414.0015992319183</v>
@@ -11379,13 +11379,13 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L45" t="n">
-        <v>482.0924488944969</v>
+        <v>482.0924488944971</v>
       </c>
       <c r="M45" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>623.1450866466198</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
@@ -23261,19 +23261,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>256.001881438235</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>265.7754545221994</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>298.8325260922642</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>216.2294497816569</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23312,13 +23312,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>58.50417412751951</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>220.5156376762044</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>245.8157371541613</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>277.0092604360253</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>265.0205773937071</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>126.3967112203734</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>57.3561021300337</v>
+        <v>57.35610213003371</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>71.88509579130813</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>108.9489477341494</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>139.2413130842302</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23558,10 +23558,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>265.1159953869079</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>193.3447554854721</v>
       </c>
     </row>
     <row r="15">
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1.517008740847814e-12</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>-1.989519660128281e-13</v>
       </c>
     </row>
     <row r="18">
@@ -24695,7 +24695,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24740,7 +24740,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>7.673861546209082e-13</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -25631,22 +25631,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>236.4450028248922</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>170.4093802003669</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>279.2756474789214</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>24.78038983026729</v>
+        <v>37.79922351669097</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25688,7 +25688,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>226.2588585408185</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25871,19 +25871,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>170.4093802003669</v>
       </c>
       <c r="F44" t="n">
-        <v>22.46741007560681</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>279.2756474789214</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>37.79922351669088</v>
+        <v>37.79922351669097</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25922,10 +25922,10 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>200.9587590628616</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>226.2588585408185</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>629948.2417509544</v>
+        <v>629948.2417509543</v>
       </c>
     </row>
     <row r="10">
@@ -26314,46 +26314,46 @@
         <v>748433.4589818273</v>
       </c>
       <c r="C2" t="n">
+        <v>748433.4589818275</v>
+      </c>
+      <c r="D2" t="n">
         <v>748433.4589818273</v>
       </c>
-      <c r="D2" t="n">
-        <v>748433.458981827</v>
-      </c>
       <c r="E2" t="n">
-        <v>687832.6660087844</v>
+        <v>687832.6660087846</v>
       </c>
       <c r="F2" t="n">
-        <v>687832.6660087847</v>
+        <v>687832.6660087846</v>
       </c>
       <c r="G2" t="n">
-        <v>748433.4589818279</v>
+        <v>748433.4589818273</v>
       </c>
       <c r="H2" t="n">
-        <v>748433.4589818278</v>
+        <v>748433.4589818277</v>
       </c>
       <c r="I2" t="n">
         <v>748433.4589818273</v>
       </c>
       <c r="J2" t="n">
-        <v>748433.458981826</v>
+        <v>748433.4589818262</v>
       </c>
       <c r="K2" t="n">
         <v>748433.458981826</v>
       </c>
       <c r="L2" t="n">
-        <v>748433.4589818281</v>
+        <v>748433.4589818286</v>
       </c>
       <c r="M2" t="n">
-        <v>748433.4589818278</v>
+        <v>748433.4589818277</v>
       </c>
       <c r="N2" t="n">
-        <v>748433.4589818273</v>
+        <v>748433.4589818277</v>
       </c>
       <c r="O2" t="n">
-        <v>710599.8062465092</v>
+        <v>710599.806246509</v>
       </c>
       <c r="P2" t="n">
-        <v>710599.8062465091</v>
+        <v>710599.8062465088</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>154746.3290100252</v>
+        <v>154746.3290100255</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>19738.48714776775</v>
+        <v>19738.48714776754</v>
       </c>
       <c r="E3" t="n">
-        <v>128695.1684701464</v>
+        <v>128695.1684701463</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>41644.66295445965</v>
+        <v>41644.6629544598</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>219583.1469707437</v>
+        <v>219583.1469707439</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>54796.62224975108</v>
+        <v>54796.62224975103</v>
       </c>
       <c r="M3" t="n">
-        <v>25413.53082723084</v>
+        <v>25413.53082723079</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>33084.2598593716</v>
+        <v>33084.25985937136</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>234210.1287860092</v>
+        <v>234210.1287860091</v>
       </c>
       <c r="C4" t="n">
-        <v>234210.1287860092</v>
+        <v>234210.1287860091</v>
       </c>
       <c r="D4" t="n">
         <v>219386.7809755888</v>
       </c>
       <c r="E4" t="n">
-        <v>174007.3099199998</v>
+        <v>174007.3099199997</v>
       </c>
       <c r="F4" t="n">
         <v>174007.3099199998</v>
       </c>
       <c r="G4" t="n">
-        <v>209249.2231236643</v>
+        <v>209249.2231236644</v>
       </c>
       <c r="H4" t="n">
         <v>209249.2231236644</v>
@@ -26454,10 +26454,10 @@
         <v>209249.2231236644</v>
       </c>
       <c r="O4" t="n">
-        <v>187236.7181215961</v>
+        <v>187236.718121596</v>
       </c>
       <c r="P4" t="n">
-        <v>187236.7181215961</v>
+        <v>187236.718121596</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26467,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61702.59575919747</v>
+        <v>61702.59575919752</v>
       </c>
       <c r="C5" t="n">
-        <v>61702.59575919747</v>
+        <v>61702.59575919752</v>
       </c>
       <c r="D5" t="n">
         <v>65566.03463691141</v>
       </c>
       <c r="E5" t="n">
-        <v>48644.24398372456</v>
+        <v>48644.24398372455</v>
       </c>
       <c r="F5" t="n">
-        <v>48644.24398372456</v>
+        <v>48644.24398372455</v>
       </c>
       <c r="G5" t="n">
-        <v>53020.52544612264</v>
+        <v>53020.52544612265</v>
       </c>
       <c r="H5" t="n">
-        <v>53020.52544612264</v>
+        <v>53020.52544612265</v>
       </c>
       <c r="I5" t="n">
-        <v>53020.52544612264</v>
+        <v>53020.52544612262</v>
       </c>
       <c r="J5" t="n">
-        <v>58943.11413656328</v>
+        <v>58943.11413656329</v>
       </c>
       <c r="K5" t="n">
-        <v>58943.11413656328</v>
+        <v>58943.11413656329</v>
       </c>
       <c r="L5" t="n">
-        <v>56461.76534134416</v>
+        <v>56461.76534134419</v>
       </c>
       <c r="M5" t="n">
-        <v>53020.52544612265</v>
+        <v>53020.52544612266</v>
       </c>
       <c r="N5" t="n">
-        <v>53020.52544612265</v>
+        <v>53020.52544612266</v>
       </c>
       <c r="O5" t="n">
-        <v>50288.37121186968</v>
+        <v>50288.37121186967</v>
       </c>
       <c r="P5" t="n">
-        <v>50288.37121186968</v>
+        <v>50288.37121186967</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>297774.4054265952</v>
+        <v>297774.4054265951</v>
       </c>
       <c r="C6" t="n">
-        <v>452520.7344366205</v>
+        <v>452520.7344366208</v>
       </c>
       <c r="D6" t="n">
-        <v>443742.156221559</v>
+        <v>443742.1562215595</v>
       </c>
       <c r="E6" t="n">
-        <v>336485.9436349137</v>
+        <v>336330.5569862652</v>
       </c>
       <c r="F6" t="n">
-        <v>465181.1121050603</v>
+        <v>465025.7254564114</v>
       </c>
       <c r="G6" t="n">
-        <v>444519.0474575813</v>
+        <v>444519.0474575804</v>
       </c>
       <c r="H6" t="n">
-        <v>486163.7104120408</v>
+        <v>486163.7104120407</v>
       </c>
       <c r="I6" t="n">
-        <v>486163.7104120402</v>
+        <v>486163.7104120404</v>
       </c>
       <c r="J6" t="n">
-        <v>259873.9529408551</v>
+        <v>259873.952940855</v>
       </c>
       <c r="K6" t="n">
         <v>479457.0999115987</v>
       </c>
       <c r="L6" t="n">
-        <v>427482.1715114455</v>
+        <v>427482.1715114462</v>
       </c>
       <c r="M6" t="n">
-        <v>460750.1795848099</v>
+        <v>460750.1795848098</v>
       </c>
       <c r="N6" t="n">
-        <v>486163.7104120402</v>
+        <v>486163.7104120407</v>
       </c>
       <c r="O6" t="n">
-        <v>439990.4570536718</v>
+        <v>439893.4476876839</v>
       </c>
       <c r="P6" t="n">
-        <v>473074.7169130432</v>
+        <v>472977.7075470551</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="F2" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="G2" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="H2" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="I2" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="J2" t="n">
         <v>125.9101035970209</v>
@@ -26713,7 +26713,7 @@
         <v>125.9101035970209</v>
       </c>
       <c r="L2" t="n">
-        <v>142.3500527161352</v>
+        <v>142.3500527161349</v>
       </c>
       <c r="M2" t="n">
         <v>165.1496723798883</v>
@@ -26722,10 +26722,10 @@
         <v>165.1496723798883</v>
       </c>
       <c r="O2" t="n">
-        <v>132.6507223001565</v>
+        <v>132.6507223001564</v>
       </c>
       <c r="P2" t="n">
-        <v>132.6507223001565</v>
+        <v>132.6507223001564</v>
       </c>
     </row>
     <row r="3">
@@ -26787,37 +26787,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.7597986710111</v>
+        <v>461.7597986710118</v>
       </c>
       <c r="C4" t="n">
-        <v>461.7597986710111</v>
+        <v>461.7597986710118</v>
       </c>
       <c r="D4" t="n">
         <v>525.3032012649903</v>
       </c>
       <c r="E4" t="n">
-        <v>642.214888937881</v>
+        <v>642.2148889378809</v>
       </c>
       <c r="F4" t="n">
-        <v>642.214888937881</v>
+        <v>642.2148889378809</v>
       </c>
       <c r="G4" t="n">
-        <v>642.214888937881</v>
+        <v>642.2148889378809</v>
       </c>
       <c r="H4" t="n">
-        <v>642.214888937881</v>
+        <v>642.2148889378809</v>
       </c>
       <c r="I4" t="n">
-        <v>642.214888937881</v>
+        <v>642.2148889378805</v>
       </c>
       <c r="J4" t="n">
-        <v>793.8829810176098</v>
+        <v>793.8829810176099</v>
       </c>
       <c r="K4" t="n">
-        <v>793.8829810176097</v>
+        <v>793.8829810176099</v>
       </c>
       <c r="L4" t="n">
-        <v>730.3395784236305</v>
+        <v>730.3395784236315</v>
       </c>
       <c r="M4" t="n">
         <v>642.214888937881</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>52.05582869307456</v>
+        <v>52.05582869307474</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.85427490394633</v>
+        <v>73.85427490394615</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>68.49577781218885</v>
+        <v>68.49577781218879</v>
       </c>
       <c r="M2" t="n">
-        <v>22.79961966375313</v>
+        <v>22.79961966375339</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>41.35532482421451</v>
+        <v>41.35532482421421</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.7597986710111</v>
+        <v>461.7597986710118</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>63.54340259397918</v>
+        <v>63.5434025939785</v>
       </c>
       <c r="E4" t="n">
-        <v>116.9116876728907</v>
+        <v>116.9116876728906</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>613.4278907507399</v>
+        <v>613.4278907507413</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>28.78699818714119</v>
+        <v>28.78699818714017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>52.05582869307456</v>
+        <v>52.05582869307474</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>73.85427490394633</v>
+        <v>73.85427490394615</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.7597986710111</v>
+        <v>461.7597986710118</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>63.54340259397918</v>
+        <v>63.5434025939785</v>
       </c>
       <c r="M4" t="n">
-        <v>116.9116876728907</v>
+        <v>116.9116876728906</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
-        <v>390.0360617349868</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>50.22452904303697</v>
       </c>
       <c r="Y2" t="n">
         <v>389.6064368699203</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27464,7 +27464,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27473,7 +27473,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>67.69846245683961</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>49.93744748151298</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>139.7842241669182</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="4">
@@ -27543,16 +27543,16 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E4" t="n">
-        <v>99.71558964164922</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I4" t="n">
         <v>142.7610139533483</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>148.0265635717656</v>
@@ -27588,19 +27588,19 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
-        <v>230.8471636524779</v>
+        <v>229.3283696525924</v>
       </c>
       <c r="U4" t="n">
         <v>284.3183371157911</v>
       </c>
       <c r="V4" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X4" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>219.8148072196457</v>
@@ -27619,13 +27619,13 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>48.46588612118848</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>378.2098390737216</v>
+        <v>93.18525156231516</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="6">
@@ -27695,22 +27695,22 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>66.81424164535095</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>74.88610410938429</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>67.69846245683961</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="7">
@@ -27780,19 +27780,19 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E7" t="n">
-        <v>84.69768482647859</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H7" t="n">
         <v>157.7789187685189</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J7" t="n">
         <v>59.456666199969</v>
@@ -27819,13 +27819,13 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
-        <v>148.0265635717656</v>
+        <v>135.4299118985452</v>
       </c>
       <c r="S7" t="n">
         <v>211.5726649703493</v>
       </c>
       <c r="T7" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>284.3183371157911</v>
@@ -27834,7 +27834,7 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W7" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>228.939939463578</v>
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>364.7220051892551</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
         <v>369.0957251250487</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27907,19 +27907,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>237.1500269824789</v>
       </c>
       <c r="Y8" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27944,13 +27944,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>49.32288970647717</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,22 +27977,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>57.60636999204326</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D10" t="n">
-        <v>69.00830792116506</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
         <v>167.2305511458285</v>
@@ -28029,7 +28029,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
         <v>59.456666199969</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
-        <v>211.5726649703493</v>
+        <v>189.0241322230513</v>
       </c>
       <c r="T10" t="n">
         <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>258.1279513971616</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="C11" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="D11" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="E11" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="F11" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="G11" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="H11" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="I11" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>113.0938436868137</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>80.27119302741085</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="M11" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>80.27119302741039</v>
       </c>
       <c r="O11" t="n">
-        <v>113.0938436868137</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="R11" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="S11" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="T11" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="U11" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="V11" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="W11" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="X11" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="Y11" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
     </row>
     <row r="12">
@@ -28187,7 +28187,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>-1.06581410364015e-12</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="C13" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="D13" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="E13" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="F13" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="G13" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="H13" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="I13" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="J13" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="K13" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="L13" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="M13" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="N13" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="O13" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="P13" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="Q13" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="R13" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="S13" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="T13" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="U13" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="V13" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="W13" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="X13" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="Y13" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
     </row>
     <row r="14">
@@ -28324,34 +28324,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="C14" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="D14" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="E14" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="F14" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="G14" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="H14" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="I14" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="J14" t="n">
-        <v>80.2711930274108</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -28360,40 +28360,40 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>113.0938436868137</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>113.0938436868137</v>
+        <v>80.2711930274104</v>
       </c>
       <c r="R14" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="S14" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="T14" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="U14" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="V14" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="W14" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="X14" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="Y14" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
     </row>
     <row r="15">
@@ -28418,13 +28418,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.06581410364015e-12</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="C16" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="D16" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="E16" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="F16" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="G16" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="H16" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="I16" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="J16" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="K16" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="L16" t="n">
         <v>113.0938436868136</v>
       </c>
       <c r="M16" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="N16" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="O16" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="P16" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868142</v>
       </c>
       <c r="Q16" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="R16" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="S16" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="T16" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="U16" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="V16" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="W16" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="X16" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
       <c r="Y16" t="n">
-        <v>113.0938436868137</v>
+        <v>113.0938436868136</v>
       </c>
     </row>
     <row r="17">
@@ -28561,40 +28561,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="C17" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="D17" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="E17" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="F17" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="G17" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="H17" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="I17" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="J17" t="n">
-        <v>165.1496723798882</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>165.1496723798882</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>113.6566181505646</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -28603,34 +28603,34 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>37.1975506350006</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="R17" t="n">
-        <v>165.1496723798882</v>
+        <v>88.69060486432404</v>
       </c>
       <c r="S17" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="T17" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="U17" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="V17" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="W17" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="X17" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="Y17" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
     </row>
     <row r="18">
@@ -28655,7 +28655,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.06581410364015e-12</v>
+        <v>-6.110667527536862e-13</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -28719,10 +28719,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="C19" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="D19" t="n">
         <v>151.5411742405149</v>
@@ -28731,16 +28731,16 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F19" t="n">
-        <v>153.0713906535471</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="G19" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="H19" t="n">
-        <v>157.7128075045815</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="I19" t="n">
-        <v>165.1496723798882</v>
+        <v>153.7317788390908</v>
       </c>
       <c r="J19" t="n">
         <v>58.93095321465074</v>
@@ -28758,7 +28758,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>8.097253060852651</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>37.52931879979314</v>
       </c>
       <c r="R19" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="S19" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="T19" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="U19" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="V19" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="W19" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="X19" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="Y19" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
     </row>
     <row r="20">
@@ -28798,31 +28798,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="C20" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="D20" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="E20" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="F20" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="G20" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="H20" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="I20" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="J20" t="n">
-        <v>165.1496723798882</v>
+        <v>113.6566181505643</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -28834,40 +28834,40 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>37.19755063500094</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="O20" t="n">
-        <v>165.1496723798882</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>165.1496723798882</v>
+        <v>88.69060486432404</v>
       </c>
       <c r="S20" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="T20" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="U20" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="V20" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="W20" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="X20" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="Y20" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
     </row>
     <row r="21">
@@ -28898,7 +28898,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28956,10 +28956,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="C22" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="D22" t="n">
         <v>151.5411742405149</v>
@@ -28968,10 +28968,10 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
-        <v>150.9558484244806</v>
+        <v>153.071390653547</v>
       </c>
       <c r="G22" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="H22" t="n">
         <v>157.7128075045815</v>
@@ -28992,7 +28992,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>50.28251996071612</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29001,31 +29001,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>37.52931879979314</v>
+        <v>85.69629653144148</v>
       </c>
       <c r="R22" t="n">
         <v>147.692221740033</v>
       </c>
       <c r="S22" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="T22" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="U22" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="V22" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="W22" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="X22" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="Y22" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
     </row>
     <row r="23">
@@ -29035,37 +29035,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="C23" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="D23" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="E23" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="F23" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="G23" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="H23" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="I23" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="J23" t="n">
-        <v>165.1496723798882</v>
+        <v>113.6566181505624</v>
       </c>
       <c r="K23" t="n">
-        <v>165.1496723798882</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -29074,37 +29074,37 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="P23" t="n">
-        <v>37.19755063500241</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>165.1496723798882</v>
+        <v>88.69060486432404</v>
       </c>
       <c r="S23" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="T23" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="U23" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="V23" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="W23" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="X23" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="Y23" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
     </row>
     <row r="24">
@@ -29129,13 +29129,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>-1.06581410364015e-12</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.122657522500958e-12</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29193,25 +29193,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="C25" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="D25" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E25" t="n">
-        <v>150.4889240962943</v>
+        <v>152.6044663253606</v>
       </c>
       <c r="F25" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="H25" t="n">
-        <v>157.7128075045815</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="I25" t="n">
         <v>142.5373983489465</v>
@@ -29235,34 +29235,34 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>23.27266221648578</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.35438812065412</v>
+        <v>37.52931879979314</v>
       </c>
       <c r="R25" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="S25" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="T25" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="U25" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="V25" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="W25" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="X25" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="Y25" t="n">
-        <v>165.1496723798882</v>
+        <v>165.1496723798884</v>
       </c>
     </row>
     <row r="26">
@@ -29454,7 +29454,7 @@
         <v>125.9101035970209</v>
       </c>
       <c r="J28" t="n">
-        <v>125.9101035970209</v>
+        <v>58.93095321465074</v>
       </c>
       <c r="K28" t="n">
         <v>125.9101035970209</v>
@@ -29463,19 +29463,19 @@
         <v>125.9101035970209</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>125.9101035970209</v>
       </c>
       <c r="N28" t="n">
+        <v>95.4263526917008</v>
+      </c>
+      <c r="O28" t="n">
         <v>125.9101035970209</v>
       </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
       <c r="P28" t="n">
-        <v>65.97652110912364</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.9101035970209</v>
+        <v>37.52931879979314</v>
       </c>
       <c r="R28" t="n">
         <v>125.9101035970209</v>
@@ -29694,19 +29694,19 @@
         <v>125.9101035970209</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>65.97652110912371</v>
       </c>
       <c r="L31" t="n">
-        <v>65.97652110912368</v>
+        <v>125.9101035970209</v>
       </c>
       <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
         <v>125.9101035970209</v>
-      </c>
-      <c r="N31" t="n">
-        <v>125.9101035970209</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>125.9101035970209</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>142.3500527161352</v>
+        <v>142.3500527161349</v>
       </c>
       <c r="C32" t="n">
-        <v>142.3500527161352</v>
+        <v>142.3500527161349</v>
       </c>
       <c r="D32" t="n">
-        <v>142.3500527161352</v>
+        <v>142.3500527161349</v>
       </c>
       <c r="E32" t="n">
-        <v>142.3500527161352</v>
+        <v>142.3500527161349</v>
       </c>
       <c r="F32" t="n">
-        <v>142.3500527161352</v>
+        <v>142.3500527161349</v>
       </c>
       <c r="G32" t="n">
-        <v>142.3500527161352</v>
+        <v>142.3500527161349</v>
       </c>
       <c r="H32" t="n">
-        <v>142.3500527161352</v>
+        <v>142.3500527161349</v>
       </c>
       <c r="I32" t="n">
-        <v>142.3500527161352</v>
+        <v>142.3500527161349</v>
       </c>
       <c r="J32" t="n">
-        <v>142.3500527161352</v>
+        <v>142.3500527161349</v>
       </c>
       <c r="K32" t="n">
-        <v>142.3500527161352</v>
+        <v>142.3500527161349</v>
       </c>
       <c r="L32" t="n">
-        <v>142.3500527161352</v>
+        <v>81.14386375809278</v>
       </c>
       <c r="M32" t="n">
-        <v>142.3500527161352</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>27.48441590627721</v>
+        <v>142.3500527161349</v>
       </c>
       <c r="O32" t="n">
-        <v>142.3500527161352</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>142.3500527161349</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>142.3500527161349</v>
       </c>
       <c r="R32" t="n">
-        <v>142.3500527161352</v>
+        <v>88.69060486432404</v>
       </c>
       <c r="S32" t="n">
-        <v>142.3500527161352</v>
+        <v>142.3500527161349</v>
       </c>
       <c r="T32" t="n">
-        <v>142.3500527161352</v>
+        <v>142.3500527161349</v>
       </c>
       <c r="U32" t="n">
-        <v>142.3500527161352</v>
+        <v>142.3500527161349</v>
       </c>
       <c r="V32" t="n">
-        <v>142.3500527161352</v>
+        <v>142.3500527161349</v>
       </c>
       <c r="W32" t="n">
-        <v>142.3500527161352</v>
+        <v>142.3500527161349</v>
       </c>
       <c r="X32" t="n">
-        <v>142.3500527161352</v>
+        <v>142.3500527161349</v>
       </c>
       <c r="Y32" t="n">
-        <v>142.3500527161352</v>
+        <v>142.3500527161349</v>
       </c>
     </row>
     <row r="33">
@@ -29904,37 +29904,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>142.3500527161352</v>
+        <v>142.3500527161349</v>
       </c>
       <c r="C34" t="n">
-        <v>142.3500527161352</v>
+        <v>142.3500527161349</v>
       </c>
       <c r="D34" t="n">
-        <v>142.3500527161352</v>
+        <v>142.3500527161349</v>
       </c>
       <c r="E34" t="n">
-        <v>142.3500527161352</v>
+        <v>142.3500527161349</v>
       </c>
       <c r="F34" t="n">
-        <v>142.3500527161352</v>
+        <v>142.3500527161349</v>
       </c>
       <c r="G34" t="n">
-        <v>142.3500527161352</v>
+        <v>142.3500527161349</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3500527161352</v>
+        <v>142.3500527161349</v>
       </c>
       <c r="I34" t="n">
-        <v>142.3500527161352</v>
+        <v>142.3500527161349</v>
       </c>
       <c r="J34" t="n">
         <v>58.93095321465074</v>
       </c>
       <c r="K34" t="n">
-        <v>142.3500527161352</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>142.3500527161352</v>
+        <v>142.3500527161349</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -29946,34 +29946,34 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>45.98671479940828</v>
+        <v>83.51603359920554</v>
       </c>
       <c r="Q34" t="n">
-        <v>37.52931879979314</v>
+        <v>142.3500527161349</v>
       </c>
       <c r="R34" t="n">
-        <v>142.3500527161352</v>
+        <v>142.3500527161349</v>
       </c>
       <c r="S34" t="n">
-        <v>142.3500527161352</v>
+        <v>142.3500527161349</v>
       </c>
       <c r="T34" t="n">
-        <v>142.3500527161352</v>
+        <v>142.3500527161349</v>
       </c>
       <c r="U34" t="n">
-        <v>142.3500527161352</v>
+        <v>142.3500527161349</v>
       </c>
       <c r="V34" t="n">
-        <v>142.3500527161352</v>
+        <v>142.3500527161349</v>
       </c>
       <c r="W34" t="n">
-        <v>142.3500527161352</v>
+        <v>142.3500527161349</v>
       </c>
       <c r="X34" t="n">
-        <v>142.3500527161352</v>
+        <v>142.3500527161349</v>
       </c>
       <c r="Y34" t="n">
-        <v>142.3500527161352</v>
+        <v>142.3500527161349</v>
       </c>
     </row>
     <row r="35">
@@ -30007,13 +30007,13 @@
         <v>165.1496723798883</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -30022,13 +30022,13 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>165.1496723798883</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>37.1975506350006</v>
       </c>
       <c r="Q35" t="n">
-        <v>165.1496723798883</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>165.1496723798883</v>
@@ -30071,13 +30071,13 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>-1.06581410364015e-12</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -30165,7 +30165,7 @@
         <v>142.5373983489465</v>
       </c>
       <c r="J37" t="n">
-        <v>109.2134731753661</v>
+        <v>58.93095321465074</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30174,7 +30174,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>50.28251996071492</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -30244,28 +30244,28 @@
         <v>165.1496723798883</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
         <v>165.1496723798883</v>
       </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>113.6566181505643</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
       <c r="P38" t="n">
-        <v>165.1496723798883</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>113.6566181505651</v>
       </c>
       <c r="R38" t="n">
         <v>88.69060486432404</v>
@@ -30320,7 +30320,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>-1.06581410364015e-12</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30387,10 +30387,10 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
-        <v>165.1496723798883</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
-        <v>150.9558484244806</v>
+        <v>153.071390653547</v>
       </c>
       <c r="G40" t="n">
         <v>165.1496723798883</v>
@@ -30402,7 +30402,7 @@
         <v>142.5373983489465</v>
       </c>
       <c r="J40" t="n">
-        <v>94.55272489177216</v>
+        <v>58.93095321465074</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30420,7 +30420,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>48.16697773164857</v>
       </c>
       <c r="Q40" t="n">
         <v>37.52931879979314</v>
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>132.6507223001565</v>
+        <v>132.6507223001564</v>
       </c>
       <c r="C41" t="n">
-        <v>132.6507223001565</v>
+        <v>132.6507223001564</v>
       </c>
       <c r="D41" t="n">
-        <v>132.6507223001565</v>
+        <v>132.6507223001564</v>
       </c>
       <c r="E41" t="n">
-        <v>132.6507223001565</v>
+        <v>132.6507223001564</v>
       </c>
       <c r="F41" t="n">
-        <v>132.6507223001565</v>
+        <v>132.6507223001564</v>
       </c>
       <c r="G41" t="n">
-        <v>132.6507223001565</v>
+        <v>132.6507223001564</v>
       </c>
       <c r="H41" t="n">
-        <v>132.6507223001565</v>
+        <v>132.6507223001564</v>
       </c>
       <c r="I41" t="n">
-        <v>132.6507223001565</v>
+        <v>132.6507223001564</v>
       </c>
       <c r="J41" t="n">
-        <v>132.6507223001565</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>132.6507223001565</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>46.00379600987247</v>
       </c>
       <c r="M41" t="n">
-        <v>2.043678574039575</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>132.6507223001565</v>
+        <v>132.6507223001564</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>132.6507223001564</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>132.6507223001564</v>
       </c>
       <c r="R41" t="n">
-        <v>132.6507223001565</v>
+        <v>88.69060486432404</v>
       </c>
       <c r="S41" t="n">
-        <v>132.6507223001565</v>
+        <v>132.6507223001564</v>
       </c>
       <c r="T41" t="n">
-        <v>132.6507223001565</v>
+        <v>132.6507223001564</v>
       </c>
       <c r="U41" t="n">
-        <v>132.6507223001565</v>
+        <v>132.6507223001564</v>
       </c>
       <c r="V41" t="n">
-        <v>132.6507223001565</v>
+        <v>132.6507223001564</v>
       </c>
       <c r="W41" t="n">
-        <v>132.6507223001565</v>
+        <v>132.6507223001564</v>
       </c>
       <c r="X41" t="n">
-        <v>132.6507223001565</v>
+        <v>132.6507223001564</v>
       </c>
       <c r="Y41" t="n">
-        <v>132.6507223001565</v>
+        <v>132.6507223001564</v>
       </c>
     </row>
     <row r="42">
@@ -30615,31 +30615,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.6507223001565</v>
+        <v>132.6507223001564</v>
       </c>
       <c r="C43" t="n">
-        <v>132.6507223001565</v>
+        <v>132.6507223001564</v>
       </c>
       <c r="D43" t="n">
-        <v>132.6507223001565</v>
+        <v>132.6507223001564</v>
       </c>
       <c r="E43" t="n">
-        <v>132.6507223001565</v>
+        <v>132.6507223001564</v>
       </c>
       <c r="F43" t="n">
-        <v>132.6507223001565</v>
+        <v>132.6507223001564</v>
       </c>
       <c r="G43" t="n">
-        <v>132.6507223001565</v>
+        <v>132.6507223001564</v>
       </c>
       <c r="H43" t="n">
-        <v>132.6507223001565</v>
+        <v>132.6507223001564</v>
       </c>
       <c r="I43" t="n">
-        <v>132.6507223001565</v>
+        <v>132.6507223001564</v>
       </c>
       <c r="J43" t="n">
-        <v>132.6507223001565</v>
+        <v>58.93095321465074</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30648,43 +30648,43 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>132.6507223001565</v>
+        <v>132.6507223001564</v>
       </c>
       <c r="N43" t="n">
-        <v>54.88446083108914</v>
+        <v>128.6042299165963</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>132.6507223001565</v>
+        <v>132.6507223001564</v>
       </c>
       <c r="Q43" t="n">
-        <v>132.6507223001565</v>
+        <v>132.6507223001564</v>
       </c>
       <c r="R43" t="n">
-        <v>132.6507223001565</v>
+        <v>132.6507223001564</v>
       </c>
       <c r="S43" t="n">
-        <v>132.6507223001565</v>
+        <v>132.6507223001564</v>
       </c>
       <c r="T43" t="n">
-        <v>132.6507223001565</v>
+        <v>132.6507223001564</v>
       </c>
       <c r="U43" t="n">
-        <v>132.6507223001565</v>
+        <v>132.6507223001564</v>
       </c>
       <c r="V43" t="n">
-        <v>132.6507223001565</v>
+        <v>132.6507223001564</v>
       </c>
       <c r="W43" t="n">
-        <v>132.6507223001565</v>
+        <v>132.6507223001564</v>
       </c>
       <c r="X43" t="n">
-        <v>132.6507223001565</v>
+        <v>132.6507223001564</v>
       </c>
       <c r="Y43" t="n">
-        <v>132.6507223001565</v>
+        <v>132.6507223001564</v>
       </c>
     </row>
     <row r="44">
@@ -30694,76 +30694,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>132.6507223001565</v>
+        <v>132.6507223001564</v>
       </c>
       <c r="C44" t="n">
-        <v>132.6507223001565</v>
+        <v>132.6507223001564</v>
       </c>
       <c r="D44" t="n">
-        <v>132.6507223001565</v>
+        <v>132.6507223001564</v>
       </c>
       <c r="E44" t="n">
-        <v>132.6507223001565</v>
+        <v>132.6507223001564</v>
       </c>
       <c r="F44" t="n">
-        <v>132.6507223001565</v>
+        <v>132.6507223001564</v>
       </c>
       <c r="G44" t="n">
-        <v>132.6507223001565</v>
+        <v>132.6507223001564</v>
       </c>
       <c r="H44" t="n">
-        <v>132.6507223001565</v>
+        <v>132.6507223001564</v>
       </c>
       <c r="I44" t="n">
-        <v>132.6507223001565</v>
+        <v>132.6507223001564</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>46.00379600987236</v>
       </c>
       <c r="K44" t="n">
-        <v>132.6507223001565</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>132.6507223001565</v>
+        <v>132.6507223001564</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>132.6507223001564</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>132.6507223001564</v>
       </c>
       <c r="P44" t="n">
-        <v>132.6507223001565</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>46.00379600987254</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>88.69060486432404</v>
       </c>
       <c r="S44" t="n">
-        <v>132.6507223001565</v>
+        <v>132.6507223001564</v>
       </c>
       <c r="T44" t="n">
-        <v>132.6507223001565</v>
+        <v>132.6507223001564</v>
       </c>
       <c r="U44" t="n">
-        <v>132.6507223001565</v>
+        <v>132.6507223001564</v>
       </c>
       <c r="V44" t="n">
-        <v>132.6507223001565</v>
+        <v>132.6507223001564</v>
       </c>
       <c r="W44" t="n">
-        <v>132.6507223001565</v>
+        <v>132.6507223001564</v>
       </c>
       <c r="X44" t="n">
-        <v>132.6507223001565</v>
+        <v>132.6507223001564</v>
       </c>
       <c r="Y44" t="n">
-        <v>132.6507223001565</v>
+        <v>132.6507223001564</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.6507223001565</v>
+        <v>132.6507223001564</v>
       </c>
       <c r="C46" t="n">
-        <v>132.6507223001565</v>
+        <v>132.6507223001564</v>
       </c>
       <c r="D46" t="n">
-        <v>132.6507223001565</v>
+        <v>132.6507223001564</v>
       </c>
       <c r="E46" t="n">
-        <v>132.6507223001565</v>
+        <v>132.6507223001564</v>
       </c>
       <c r="F46" t="n">
-        <v>132.6507223001565</v>
+        <v>132.6507223001564</v>
       </c>
       <c r="G46" t="n">
-        <v>132.6507223001565</v>
+        <v>132.6507223001564</v>
       </c>
       <c r="H46" t="n">
-        <v>132.6507223001565</v>
+        <v>132.6507223001564</v>
       </c>
       <c r="I46" t="n">
-        <v>132.6507223001565</v>
+        <v>132.6507223001564</v>
       </c>
       <c r="J46" t="n">
         <v>58.93095321465074</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>132.6507223001564</v>
       </c>
       <c r="L46" t="n">
-        <v>128.6042299165949</v>
+        <v>128.6042299165964</v>
       </c>
       <c r="M46" t="n">
-        <v>132.6507223001565</v>
+        <v>132.6507223001564</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>132.6507223001565</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>132.6507223001565</v>
+        <v>132.6507223001564</v>
       </c>
       <c r="R46" t="n">
-        <v>132.6507223001565</v>
+        <v>132.6507223001564</v>
       </c>
       <c r="S46" t="n">
-        <v>132.6507223001565</v>
+        <v>132.6507223001564</v>
       </c>
       <c r="T46" t="n">
-        <v>132.6507223001565</v>
+        <v>132.6507223001564</v>
       </c>
       <c r="U46" t="n">
-        <v>132.6507223001565</v>
+        <v>132.6507223001564</v>
       </c>
       <c r="V46" t="n">
-        <v>132.6507223001565</v>
+        <v>132.6507223001564</v>
       </c>
       <c r="W46" t="n">
-        <v>132.6507223001565</v>
+        <v>132.6507223001564</v>
       </c>
       <c r="X46" t="n">
-        <v>132.6507223001565</v>
+        <v>132.6507223001564</v>
       </c>
       <c r="Y46" t="n">
-        <v>132.6507223001565</v>
+        <v>132.6507223001564</v>
       </c>
     </row>
   </sheetData>
@@ -34702,10 +34702,10 @@
         <v>242.5660323684674</v>
       </c>
       <c r="L2" t="n">
-        <v>99.79316658237114</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M2" t="n">
-        <v>397.2112790435232</v>
+        <v>145.605078873426</v>
       </c>
       <c r="N2" t="n">
         <v>382.1528875633492</v>
@@ -34781,22 +34781,22 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L3" t="n">
-        <v>369.5170153233491</v>
+        <v>307.0438293462331</v>
       </c>
       <c r="M3" t="n">
-        <v>461.7597986710111</v>
+        <v>461.7597986710118</v>
       </c>
       <c r="N3" t="n">
-        <v>461.7597986710111</v>
+        <v>461.7597986710118</v>
       </c>
       <c r="O3" t="n">
-        <v>83.30892461894628</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K5" t="n">
         <v>242.5660323684674</v>
@@ -34942,7 +34942,7 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M5" t="n">
-        <v>397.2112790435232</v>
+        <v>145.605078873426</v>
       </c>
       <c r="N5" t="n">
         <v>382.1528875633492</v>
@@ -34951,10 +34951,10 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P5" t="n">
-        <v>146.9672285323204</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35018,22 +35018,22 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L6" t="n">
-        <v>369.5170153233491</v>
+        <v>213.2767789568963</v>
       </c>
       <c r="M6" t="n">
-        <v>461.7597986710111</v>
+        <v>461.7597986710118</v>
       </c>
       <c r="N6" t="n">
-        <v>461.7597986710111</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P6" t="n">
-        <v>242.6742072306577</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K9" t="n">
-        <v>2.799832419646239</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L9" t="n">
         <v>369.5170153233491</v>
       </c>
       <c r="M9" t="n">
-        <v>489.93268031336</v>
+        <v>40.69581689574456</v>
       </c>
       <c r="N9" t="n">
         <v>516.4299455789112</v>
@@ -35270,7 +35270,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,28 +35410,28 @@
         <v>74.13274607044072</v>
       </c>
       <c r="K11" t="n">
-        <v>357.7685200609733</v>
+        <v>244.6746763741597</v>
       </c>
       <c r="L11" t="n">
-        <v>434.2865191280007</v>
+        <v>467.1091697874035</v>
       </c>
       <c r="M11" t="n">
         <v>513.2158815465236</v>
       </c>
       <c r="N11" t="n">
-        <v>385.1107455002865</v>
+        <v>465.3819385276969</v>
       </c>
       <c r="O11" t="n">
-        <v>423.9723039231358</v>
+        <v>310.8784602363221</v>
       </c>
       <c r="P11" t="n">
         <v>232.8452906963923</v>
       </c>
       <c r="Q11" t="n">
-        <v>97.17623368255899</v>
+        <v>210.2700773693726</v>
       </c>
       <c r="R11" t="n">
-        <v>24.40323882248963</v>
+        <v>24.4032388224896</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>398.2718280705802</v>
       </c>
       <c r="P12" t="n">
-        <v>306.8410642033352</v>
+        <v>306.8410642033348</v>
       </c>
       <c r="Q12" t="n">
         <v>160.49745681941</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>54.16289047216294</v>
+        <v>54.16289047216291</v>
       </c>
       <c r="K13" t="n">
         <v>147.9013755988277</v>
@@ -35574,7 +35574,7 @@
         <v>215.8226609264719</v>
       </c>
       <c r="M13" t="n">
-        <v>233.4448031295298</v>
+        <v>233.4448031295297</v>
       </c>
       <c r="N13" t="n">
         <v>233.8502550684305</v>
@@ -35586,7 +35586,7 @@
         <v>177.5977022096575</v>
       </c>
       <c r="Q13" t="n">
-        <v>75.56452488702054</v>
+        <v>75.5645248870205</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,10 +35644,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>154.4039390978515</v>
+        <v>187.2265897572544</v>
       </c>
       <c r="K14" t="n">
-        <v>244.6746763741597</v>
+        <v>357.7685200609733</v>
       </c>
       <c r="L14" t="n">
         <v>354.0153261005898</v>
@@ -35656,19 +35656,19 @@
         <v>400.1220378597099</v>
       </c>
       <c r="N14" t="n">
-        <v>498.2045891871002</v>
+        <v>498.2045891871001</v>
       </c>
       <c r="O14" t="n">
         <v>310.8784602363221</v>
       </c>
       <c r="P14" t="n">
-        <v>345.939134383206</v>
+        <v>232.8452906963923</v>
       </c>
       <c r="Q14" t="n">
-        <v>210.2700773693727</v>
+        <v>177.4474267099694</v>
       </c>
       <c r="R14" t="n">
-        <v>24.40323882248962</v>
+        <v>24.4032388224896</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>61.7007403495331</v>
+        <v>61.70074034953289</v>
       </c>
       <c r="K15" t="n">
         <v>233.2408564388568</v>
@@ -35802,16 +35802,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>54.16289047216292</v>
+        <v>54.16289047216291</v>
       </c>
       <c r="K16" t="n">
         <v>147.9013755988277</v>
       </c>
       <c r="L16" t="n">
-        <v>215.8226609264718</v>
+        <v>215.8226609264719</v>
       </c>
       <c r="M16" t="n">
-        <v>233.4448031295298</v>
+        <v>233.4448031295297</v>
       </c>
       <c r="N16" t="n">
         <v>233.8502550684305</v>
@@ -35820,10 +35820,10 @@
         <v>213.6030928503988</v>
       </c>
       <c r="P16" t="n">
-        <v>177.5977022096575</v>
+        <v>177.5977022096581</v>
       </c>
       <c r="Q16" t="n">
-        <v>75.56452488702053</v>
+        <v>75.56452488702051</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,16 +35881,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>239.2824184503289</v>
+        <v>74.13274607044072</v>
       </c>
       <c r="K17" t="n">
         <v>244.6746763741597</v>
       </c>
       <c r="L17" t="n">
-        <v>519.1649984804782</v>
+        <v>354.0153261005898</v>
       </c>
       <c r="M17" t="n">
-        <v>400.1220378597099</v>
+        <v>513.7786560102745</v>
       </c>
       <c r="N17" t="n">
         <v>385.1107455002865</v>
@@ -35899,13 +35899,13 @@
         <v>310.8784602363221</v>
       </c>
       <c r="P17" t="n">
-        <v>270.0428413313929</v>
+        <v>397.9949630762807</v>
       </c>
       <c r="Q17" t="n">
-        <v>97.17623368255899</v>
+        <v>262.3259060624474</v>
       </c>
       <c r="R17" t="n">
-        <v>76.45906751556417</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>61.70074034953289</v>
       </c>
       <c r="K18" t="n">
-        <v>233.240856438857</v>
+        <v>233.2408564388568</v>
       </c>
       <c r="L18" t="n">
         <v>371.4428084841559</v>
@@ -35972,7 +35972,7 @@
         <v>492.1799900982264</v>
       </c>
       <c r="N18" t="n">
-        <v>518.736734966704</v>
+        <v>518.7367349667038</v>
       </c>
       <c r="O18" t="n">
         <v>398.2718280705802</v>
@@ -36027,16 +36027,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>2.115542229066466</v>
+        <v>14.19382395540774</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>7.436864875306894</v>
       </c>
       <c r="I19" t="n">
-        <v>22.61227403094177</v>
+        <v>11.19438049014434</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -36054,7 +36054,7 @@
         <v>120.7564113816168</v>
       </c>
       <c r="O19" t="n">
-        <v>108.6065022244378</v>
+        <v>100.5092491635852</v>
       </c>
       <c r="P19" t="n">
         <v>64.50385852284384</v>
@@ -36063,7 +36063,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>17.45745063985521</v>
+        <v>17.45745063985538</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>239.2824184503289</v>
+        <v>187.789364221005</v>
       </c>
       <c r="K20" t="n">
         <v>244.6746763741597</v>
@@ -36130,19 +36130,19 @@
         <v>400.1220378597099</v>
       </c>
       <c r="N20" t="n">
-        <v>422.3082961352874</v>
+        <v>550.2604178801749</v>
       </c>
       <c r="O20" t="n">
-        <v>476.0281326162103</v>
+        <v>310.8784602363221</v>
       </c>
       <c r="P20" t="n">
-        <v>232.8452906963923</v>
+        <v>397.9949630762807</v>
       </c>
       <c r="Q20" t="n">
         <v>97.17623368255899</v>
       </c>
       <c r="R20" t="n">
-        <v>76.45906751556417</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,10 +36206,10 @@
         <v>371.4428084841559</v>
       </c>
       <c r="M21" t="n">
-        <v>492.1799900982264</v>
+        <v>492.1799900982262</v>
       </c>
       <c r="N21" t="n">
-        <v>518.7367349667043</v>
+        <v>518.736734966704</v>
       </c>
       <c r="O21" t="n">
         <v>398.2718280705802</v>
@@ -36264,7 +36264,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>2.115542229066323</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -36288,7 +36288,7 @@
         <v>120.3509594427161</v>
       </c>
       <c r="N22" t="n">
-        <v>171.0389313423329</v>
+        <v>120.7564113816168</v>
       </c>
       <c r="O22" t="n">
         <v>100.5092491635852</v>
@@ -36297,7 +36297,7 @@
         <v>64.50385852284384</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>48.16697773164833</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,13 +36355,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>239.2824184503289</v>
+        <v>187.7893642210031</v>
       </c>
       <c r="K23" t="n">
-        <v>409.8243487540479</v>
+        <v>244.6746763741597</v>
       </c>
       <c r="L23" t="n">
-        <v>354.0153261005898</v>
+        <v>519.1649984804783</v>
       </c>
       <c r="M23" t="n">
         <v>400.1220378597099</v>
@@ -36370,16 +36370,16 @@
         <v>385.1107455002865</v>
       </c>
       <c r="O23" t="n">
-        <v>310.8784602363221</v>
+        <v>476.0281326162105</v>
       </c>
       <c r="P23" t="n">
-        <v>270.0428413313947</v>
+        <v>232.8452906963923</v>
       </c>
       <c r="Q23" t="n">
         <v>97.17623368255899</v>
       </c>
       <c r="R23" t="n">
-        <v>76.45906751556417</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>61.7007403495331</v>
+        <v>61.70074034953289</v>
       </c>
       <c r="K24" t="n">
         <v>233.2408564388568</v>
@@ -36446,7 +36446,7 @@
         <v>492.1799900982264</v>
       </c>
       <c r="N24" t="n">
-        <v>518.736734966704</v>
+        <v>518.736734966702</v>
       </c>
       <c r="O24" t="n">
         <v>398.2718280705802</v>
@@ -36498,7 +36498,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>2.115542229066294</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -36507,7 +36507,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>7.436864875306894</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -36531,13 +36531,13 @@
         <v>100.5092491635852</v>
       </c>
       <c r="P25" t="n">
-        <v>64.50385852284384</v>
+        <v>87.77652073932963</v>
       </c>
       <c r="Q25" t="n">
-        <v>32.82506932086098</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>17.45745063985521</v>
+        <v>17.45745063985538</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>370.5847799711806</v>
       </c>
       <c r="L26" t="n">
-        <v>479.9254296976107</v>
+        <v>479.9254296976108</v>
       </c>
       <c r="M26" t="n">
         <v>526.0321414567309</v>
       </c>
       <c r="N26" t="n">
-        <v>511.0208490973073</v>
+        <v>511.0208490973074</v>
       </c>
       <c r="O26" t="n">
         <v>436.788563833343</v>
       </c>
       <c r="P26" t="n">
-        <v>358.7553942934131</v>
+        <v>358.7553942934132</v>
       </c>
       <c r="Q26" t="n">
         <v>223.0863372795799</v>
       </c>
       <c r="R26" t="n">
-        <v>37.21949873269684</v>
+        <v>37.21949873269686</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36683,7 +36683,7 @@
         <v>492.1799900982264</v>
       </c>
       <c r="N27" t="n">
-        <v>518.7367349667034</v>
+        <v>518.736734966704</v>
       </c>
       <c r="O27" t="n">
         <v>398.2718280705802</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>66.97915038237015</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>160.7176355090349</v>
@@ -36759,19 +36759,19 @@
         <v>228.6389208366791</v>
       </c>
       <c r="M28" t="n">
-        <v>120.3509594427161</v>
+        <v>246.261063039737</v>
       </c>
       <c r="N28" t="n">
-        <v>246.6665149786377</v>
+        <v>216.1827640733176</v>
       </c>
       <c r="O28" t="n">
-        <v>100.5092491635852</v>
+        <v>226.4193527606061</v>
       </c>
       <c r="P28" t="n">
-        <v>130.4803796319675</v>
+        <v>64.50385852284384</v>
       </c>
       <c r="Q28" t="n">
-        <v>88.38078479722775</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,7 +36835,7 @@
         <v>370.5847799711806</v>
       </c>
       <c r="L29" t="n">
-        <v>479.9254296976107</v>
+        <v>479.9254296976108</v>
       </c>
       <c r="M29" t="n">
         <v>526.0321414567309</v>
@@ -36847,13 +36847,13 @@
         <v>436.788563833343</v>
       </c>
       <c r="P29" t="n">
-        <v>358.7553942934131</v>
+        <v>358.7553942934132</v>
       </c>
       <c r="Q29" t="n">
         <v>223.0863372795799</v>
       </c>
       <c r="R29" t="n">
-        <v>37.21949873269683</v>
+        <v>37.21949873269685</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36920,7 +36920,7 @@
         <v>492.1799900982264</v>
       </c>
       <c r="N30" t="n">
-        <v>518.736734966704</v>
+        <v>518.7367349667034</v>
       </c>
       <c r="O30" t="n">
         <v>398.2718280705802</v>
@@ -36990,25 +36990,25 @@
         <v>66.97915038237015</v>
       </c>
       <c r="K31" t="n">
-        <v>34.807531912014</v>
+        <v>100.7840530211377</v>
       </c>
       <c r="L31" t="n">
-        <v>168.7053383487819</v>
+        <v>228.6389208366791</v>
       </c>
       <c r="M31" t="n">
-        <v>246.261063039737</v>
+        <v>120.3509594427161</v>
       </c>
       <c r="N31" t="n">
-        <v>246.6665149786377</v>
+        <v>120.7564113816168</v>
       </c>
       <c r="O31" t="n">
-        <v>100.5092491635852</v>
+        <v>226.4193527606061</v>
       </c>
       <c r="P31" t="n">
         <v>190.4139621198647</v>
       </c>
       <c r="Q31" t="n">
-        <v>88.38078479722775</v>
+        <v>88.38078479722776</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>216.4827987865759</v>
+        <v>216.4827987865757</v>
       </c>
       <c r="K32" t="n">
-        <v>387.0247290902949</v>
+        <v>387.0247290902947</v>
       </c>
       <c r="L32" t="n">
-        <v>496.365378816725</v>
+        <v>435.1591898586826</v>
       </c>
       <c r="M32" t="n">
-        <v>542.4720905758451</v>
+        <v>400.1220378597099</v>
       </c>
       <c r="N32" t="n">
-        <v>412.5951614065637</v>
+        <v>527.4607982164215</v>
       </c>
       <c r="O32" t="n">
-        <v>453.2285129524573</v>
+        <v>310.8784602363221</v>
       </c>
       <c r="P32" t="n">
-        <v>232.8452906963923</v>
+        <v>375.1953434125272</v>
       </c>
       <c r="Q32" t="n">
-        <v>97.17623368255899</v>
+        <v>239.5262863986939</v>
       </c>
       <c r="R32" t="n">
-        <v>53.65944785181113</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37227,10 +37227,10 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>177.1575846281492</v>
+        <v>34.807531912014</v>
       </c>
       <c r="L34" t="n">
-        <v>245.0788699557934</v>
+        <v>245.0788699557932</v>
       </c>
       <c r="M34" t="n">
         <v>120.3509594427161</v>
@@ -37242,10 +37242,10 @@
         <v>100.5092491635852</v>
       </c>
       <c r="P34" t="n">
-        <v>110.4905733222521</v>
+        <v>148.0198921220494</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>104.8207339163418</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,13 +37303,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>74.13274607044072</v>
+        <v>239.2824184503291</v>
       </c>
       <c r="K35" t="n">
         <v>244.6746763741597</v>
       </c>
       <c r="L35" t="n">
-        <v>354.0153261005898</v>
+        <v>519.1649984804782</v>
       </c>
       <c r="M35" t="n">
         <v>400.1220378597099</v>
@@ -37318,16 +37318,16 @@
         <v>385.1107455002865</v>
       </c>
       <c r="O35" t="n">
-        <v>476.0281326162104</v>
+        <v>310.8784602363221</v>
       </c>
       <c r="P35" t="n">
         <v>270.0428413313929</v>
       </c>
       <c r="Q35" t="n">
-        <v>262.3259060624472</v>
+        <v>97.17623368255899</v>
       </c>
       <c r="R35" t="n">
-        <v>76.45906751556426</v>
+        <v>76.45906751556429</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37403,7 +37403,7 @@
         <v>306.8410642033352</v>
       </c>
       <c r="Q36" t="n">
-        <v>160.49745681941</v>
+        <v>160.4974568194099</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>50.28251996071534</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>34.807531912014</v>
@@ -37470,7 +37470,7 @@
         <v>102.7288172396583</v>
       </c>
       <c r="M37" t="n">
-        <v>120.3509594427161</v>
+        <v>170.633479403431</v>
       </c>
       <c r="N37" t="n">
         <v>120.7564113816168</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>74.13274607044072</v>
+        <v>239.2824184503291</v>
       </c>
       <c r="K38" t="n">
-        <v>409.824348754048</v>
+        <v>244.6746763741597</v>
       </c>
       <c r="L38" t="n">
         <v>354.0153261005898</v>
       </c>
       <c r="M38" t="n">
-        <v>513.7786560102742</v>
+        <v>400.1220378597099</v>
       </c>
       <c r="N38" t="n">
         <v>385.1107455002865</v>
       </c>
       <c r="O38" t="n">
-        <v>310.8784602363221</v>
+        <v>476.0281326162104</v>
       </c>
       <c r="P38" t="n">
-        <v>397.9949630762806</v>
+        <v>232.8452906963923</v>
       </c>
       <c r="Q38" t="n">
-        <v>97.17623368255899</v>
+        <v>210.832851833124</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37631,10 +37631,10 @@
         <v>492.1799900982264</v>
       </c>
       <c r="N39" t="n">
-        <v>518.7367349667043</v>
+        <v>518.736734966704</v>
       </c>
       <c r="O39" t="n">
-        <v>398.2718280705802</v>
+        <v>398.2718280705804</v>
       </c>
       <c r="P39" t="n">
         <v>306.8410642033352</v>
@@ -37683,10 +37683,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>14.66074828359396</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>2.115542229066352</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>35.62177167712143</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>34.807531912014</v>
@@ -37716,7 +37716,7 @@
         <v>100.5092491635852</v>
       </c>
       <c r="P40" t="n">
-        <v>64.50385852284384</v>
+        <v>112.6708362544924</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>206.7834683705972</v>
+        <v>74.13274607044072</v>
       </c>
       <c r="K41" t="n">
-        <v>377.3253986743162</v>
+        <v>244.6746763741597</v>
       </c>
       <c r="L41" t="n">
-        <v>354.0153261005898</v>
+        <v>400.0191221104623</v>
       </c>
       <c r="M41" t="n">
-        <v>402.1657164337495</v>
+        <v>400.1220378597099</v>
       </c>
       <c r="N41" t="n">
-        <v>517.761467800443</v>
+        <v>517.7614678004429</v>
       </c>
       <c r="O41" t="n">
         <v>310.8784602363221</v>
       </c>
       <c r="P41" t="n">
-        <v>232.8452906963923</v>
+        <v>365.4960129965486</v>
       </c>
       <c r="Q41" t="n">
-        <v>97.17623368255899</v>
+        <v>229.8269559827154</v>
       </c>
       <c r="R41" t="n">
-        <v>43.96011743583244</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>73.71976908550575</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>34.807531912014</v>
@@ -37944,10 +37944,10 @@
         <v>102.7288172396583</v>
       </c>
       <c r="M43" t="n">
-        <v>253.0016817428726</v>
+        <v>253.0016817428725</v>
       </c>
       <c r="N43" t="n">
-        <v>175.640872212706</v>
+        <v>249.3606412982131</v>
       </c>
       <c r="O43" t="n">
         <v>100.5092491635852</v>
@@ -37956,7 +37956,7 @@
         <v>197.1545808230003</v>
       </c>
       <c r="Q43" t="n">
-        <v>95.12140350036334</v>
+        <v>95.12140350036326</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>74.13274607044072</v>
+        <v>120.1365420803131</v>
       </c>
       <c r="K44" t="n">
-        <v>377.3253986743162</v>
+        <v>244.6746763741597</v>
       </c>
       <c r="L44" t="n">
-        <v>486.6660484007463</v>
+        <v>486.6660484007462</v>
       </c>
       <c r="M44" t="n">
-        <v>400.1220378597099</v>
+        <v>532.7727601598664</v>
       </c>
       <c r="N44" t="n">
         <v>385.1107455002865</v>
       </c>
       <c r="O44" t="n">
-        <v>310.8784602363221</v>
+        <v>443.5291825364785</v>
       </c>
       <c r="P44" t="n">
-        <v>365.4960129965488</v>
+        <v>232.8452906963923</v>
       </c>
       <c r="Q44" t="n">
-        <v>143.1800296924315</v>
+        <v>97.17623368255899</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38099,13 +38099,13 @@
         <v>233.2408564388568</v>
       </c>
       <c r="L45" t="n">
-        <v>371.4428084841559</v>
+        <v>371.4428084841562</v>
       </c>
       <c r="M45" t="n">
         <v>492.1799900982264</v>
       </c>
       <c r="N45" t="n">
-        <v>518.7367349667043</v>
+        <v>518.736734966704</v>
       </c>
       <c r="O45" t="n">
         <v>398.2718280705802</v>
@@ -38175,25 +38175,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>34.807531912014</v>
+        <v>167.4582542121704</v>
       </c>
       <c r="L46" t="n">
-        <v>231.3330471562532</v>
+        <v>231.3330471562546</v>
       </c>
       <c r="M46" t="n">
-        <v>253.0016817428726</v>
+        <v>253.0016817428725</v>
       </c>
       <c r="N46" t="n">
         <v>120.7564113816168</v>
       </c>
       <c r="O46" t="n">
-        <v>233.1599714637416</v>
+        <v>100.5092491635852</v>
       </c>
       <c r="P46" t="n">
         <v>64.50385852284384</v>
       </c>
       <c r="Q46" t="n">
-        <v>95.12140350036334</v>
+        <v>95.12140350036326</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
